--- a/EBS_tables-Non-Prod-build.xlsx
+++ b/EBS_tables-Non-Prod-build.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abg186\OneDrive - Harvard University\Documents\AAD_DataWarehouse_Development\OCT2020\ADMIRE Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zel-rewini/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3C5CD17-70FC-429E-978F-4F5EAA40E4F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4386A60F-2951-FB4A-B0DD-8DD85F841515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{DC403DDA-383A-4DE6-B554-DC9302A787D2}"/>
+    <workbookView xWindow="8100" yWindow="500" windowWidth="20920" windowHeight="12300" activeTab="1" xr2:uid="{DC403DDA-383A-4DE6-B554-DC9302A787D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Staging Tables" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="1148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="1147">
   <si>
     <t>FININT Database connection info:  HOST=findb-int2.huit.harvard.edu     PORT=8803        SID=finint</t>
   </si>
@@ -3457,9 +3457,6 @@
   </si>
   <si>
     <t>GL_JE_LINES_DEL</t>
-  </si>
-  <si>
-    <t>HUPOJG_DISTRIBUTIONS</t>
   </si>
   <si>
     <t>HUPOJG_DISTRIBUTIONS_DEL</t>
@@ -3499,7 +3496,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3702,26 +3699,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -4062,34 +4059,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45BE3281-195B-4D72-A902-5E97949B51A9}">
   <dimension ref="A1:H445"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B427" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A434" sqref="A434:A438"/>
+    <sheetView topLeftCell="B393" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D405" sqref="D405"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="34.42578125" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="34.5" customWidth="1"/>
+    <col min="3" max="3" width="34.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.5" customHeight="1">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-    </row>
-    <row r="2" spans="1:8" ht="30">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+    </row>
+    <row r="2" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4115,14 +4112,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="36" t="s">
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="38" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="25" t="s">
@@ -4131,29 +4128,29 @@
       <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="38">
+      <c r="F3" s="36">
         <v>35000000</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="39"/>
+    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="38"/>
       <c r="D4" s="25" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="38"/>
+      <c r="F4" s="36"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
+    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
@@ -4169,9 +4166,9 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
+    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="9" t="s">
         <v>19</v>
       </c>
@@ -4185,10 +4182,10 @@
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="36"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="39" t="s">
+    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="38" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="25" t="s">
@@ -4197,30 +4194,30 @@
       <c r="E7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="36">
         <v>21000</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="39"/>
+    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="38"/>
       <c r="D8" s="25" t="s">
         <v>24</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="38"/>
+      <c r="F8" s="36"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="39" t="s">
+    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="38" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="25" t="s">
@@ -4229,30 +4226,30 @@
       <c r="E9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="38">
+      <c r="F9" s="36">
         <v>720000</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="39"/>
+    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="38"/>
       <c r="D10" s="25" t="s">
         <v>29</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="38"/>
+      <c r="F10" s="36"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="39" t="s">
+    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="39"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="38" t="s">
         <v>31</v>
       </c>
       <c r="D11" s="25" t="s">
@@ -4261,32 +4258,32 @@
       <c r="E11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F11" s="36">
         <v>5330000</v>
       </c>
-      <c r="G11" s="40" t="s">
+      <c r="G11" s="42" t="s">
         <v>34</v>
       </c>
       <c r="H11" s="17"/>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="39"/>
+    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="39"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="38"/>
       <c r="D12" s="25" t="s">
         <v>35</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="38"/>
-      <c r="G12" s="40"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="42"/>
       <c r="H12" s="17"/>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="39" t="s">
+    <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="39"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="38" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="25" t="s">
@@ -4295,29 +4292,29 @@
       <c r="E13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="38">
+      <c r="F13" s="36">
         <v>20</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="39"/>
+    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="39"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="38"/>
       <c r="D14" s="25" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="38"/>
+      <c r="F14" s="36"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="36"/>
-      <c r="B15" s="36"/>
+    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="39"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="9" t="s">
         <v>42</v>
       </c>
@@ -4331,9 +4328,9 @@
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
+    <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="39"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="1" t="s">
         <v>44</v>
       </c>
@@ -4349,10 +4346,10 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="36"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="39" t="s">
+    <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="39"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="38" t="s">
         <v>47</v>
       </c>
       <c r="D17" s="25" t="s">
@@ -4361,29 +4358,29 @@
       <c r="E17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="38">
+      <c r="F17" s="36">
         <v>55</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="39"/>
+    <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="39"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="38"/>
       <c r="D18" s="25" t="s">
         <v>50</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F18" s="38"/>
+      <c r="F18" s="36"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
+    <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="39"/>
+      <c r="B19" s="39"/>
       <c r="C19" s="1" t="s">
         <v>52</v>
       </c>
@@ -4399,10 +4396,10 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="39" t="s">
+    <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="39"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="38" t="s">
         <v>55</v>
       </c>
       <c r="D20" s="25" t="s">
@@ -4411,46 +4408,46 @@
       <c r="E20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F20" s="38">
+      <c r="F20" s="36">
         <v>1450000</v>
       </c>
-      <c r="G20" s="40" t="s">
+      <c r="G20" s="42" t="s">
         <v>34</v>
       </c>
       <c r="H20" s="17"/>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="36"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="39"/>
+    <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="39"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="38"/>
       <c r="D21" s="25" t="s">
         <v>35</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F21" s="38"/>
-      <c r="G21" s="40"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="42"/>
       <c r="H21" s="17"/>
     </row>
-    <row r="22" spans="1:8" ht="30">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="39"/>
+    <row r="22" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A22" s="39"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="38"/>
       <c r="D22" s="25" t="s">
         <v>59</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="38"/>
-      <c r="G22" s="40"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="42"/>
       <c r="H22" s="17"/>
     </row>
-    <row r="23" spans="1:8" ht="30">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="39" t="s">
+    <row r="23" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A23" s="39"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="38" t="s">
         <v>61</v>
       </c>
       <c r="D23" s="25" t="s">
@@ -4459,29 +4456,29 @@
       <c r="E23" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="38">
+      <c r="F23" s="36">
         <v>31100000</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="39"/>
+    <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="38"/>
       <c r="D24" s="25" t="s">
         <v>64</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F24" s="38"/>
+      <c r="F24" s="36"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
+    <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
       <c r="C25" s="1" t="s">
         <v>66</v>
       </c>
@@ -4497,9 +4494,9 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
+    <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
       <c r="C26" s="1" t="s">
         <v>69</v>
       </c>
@@ -4515,9 +4512,9 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36"/>
+    <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="39"/>
+      <c r="B27" s="39"/>
       <c r="C27" s="1" t="s">
         <v>72</v>
       </c>
@@ -4535,10 +4532,10 @@
       </c>
       <c r="H27" s="17"/>
     </row>
-    <row r="28" spans="1:8" ht="30">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="39" t="s">
+    <row r="28" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A28" s="39"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="38" t="s">
         <v>75</v>
       </c>
       <c r="D28" s="25" t="s">
@@ -4547,29 +4544,29 @@
       <c r="E28" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F28" s="38">
+      <c r="F28" s="36">
         <v>350</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" ht="30">
-      <c r="A29" s="36"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="39"/>
+    <row r="29" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A29" s="39"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="38"/>
       <c r="D29" s="25" t="s">
         <v>78</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="F29" s="38"/>
+      <c r="F29" s="36"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="36"/>
-      <c r="B30" s="36"/>
+    <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="39"/>
+      <c r="B30" s="39"/>
       <c r="C30" s="1" t="s">
         <v>80</v>
       </c>
@@ -4585,9 +4582,9 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="36"/>
-      <c r="B31" s="36"/>
+    <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="39"/>
+      <c r="B31" s="39"/>
       <c r="C31" s="1" t="s">
         <v>82</v>
       </c>
@@ -4603,10 +4600,10 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="36"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="39" t="s">
+    <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="39"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="38" t="s">
         <v>85</v>
       </c>
       <c r="D32" s="25" t="s">
@@ -4615,29 +4612,29 @@
       <c r="E32" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F32" s="38">
+      <c r="F32" s="36">
         <v>576000</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="36"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="39"/>
+    <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="39"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="38"/>
       <c r="D33" s="25" t="s">
         <v>88</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F33" s="38"/>
+      <c r="F33" s="36"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="36"/>
-      <c r="B34" s="36"/>
+    <row r="34" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="39"/>
+      <c r="B34" s="39"/>
       <c r="C34" s="1" t="s">
         <v>90</v>
       </c>
@@ -4653,10 +4650,10 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="36"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="39" t="s">
+    <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="39"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="38" t="s">
         <v>93</v>
       </c>
       <c r="D35" s="25" t="s">
@@ -4665,29 +4662,29 @@
       <c r="E35" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F35" s="38">
+      <c r="F35" s="36">
         <v>1010000</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="36"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="39"/>
+    <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="39"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="38"/>
       <c r="D36" s="25" t="s">
         <v>96</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F36" s="38"/>
+      <c r="F36" s="36"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="36"/>
-      <c r="B37" s="36"/>
+    <row r="37" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="39"/>
+      <c r="B37" s="39"/>
       <c r="C37" s="1" t="s">
         <v>98</v>
       </c>
@@ -4703,9 +4700,9 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="36"/>
-      <c r="B38" s="36"/>
+    <row r="38" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="39"/>
+      <c r="B38" s="39"/>
       <c r="C38" s="1" t="s">
         <v>101</v>
       </c>
@@ -4721,7 +4718,7 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" ht="3.75" customHeight="1">
+    <row r="39" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -4731,14 +4728,14 @@
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
     </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="36" t="s">
+    <row r="40" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="C40" s="39" t="s">
+      <c r="C40" s="38" t="s">
         <v>106</v>
       </c>
       <c r="D40" s="25" t="s">
@@ -4747,30 +4744,30 @@
       <c r="E40" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F40" s="38">
+      <c r="F40" s="36">
         <v>290</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8" ht="30">
-      <c r="A41" s="36"/>
-      <c r="B41" s="36"/>
-      <c r="C41" s="39"/>
+    <row r="41" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="39"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="38"/>
       <c r="D41" s="25" t="s">
         <v>109</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F41" s="38"/>
+      <c r="F41" s="36"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="1:8" ht="30">
-      <c r="A42" s="36"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="39" t="s">
+    <row r="42" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="39"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="38" t="s">
         <v>111</v>
       </c>
       <c r="D42" s="25" t="s">
@@ -4779,29 +4776,29 @@
       <c r="E42" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F42" s="38">
+      <c r="F42" s="36">
         <v>300</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="1:8" ht="30">
-      <c r="A43" s="36"/>
-      <c r="B43" s="36"/>
-      <c r="C43" s="39"/>
+    <row r="43" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A43" s="39"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="38"/>
       <c r="D43" s="25" t="s">
         <v>114</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F43" s="38"/>
+      <c r="F43" s="36"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="36"/>
-      <c r="B44" s="36"/>
+    <row r="44" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="39"/>
+      <c r="B44" s="39"/>
       <c r="C44" s="1" t="s">
         <v>116</v>
       </c>
@@ -4817,10 +4814,10 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:8" ht="30">
-      <c r="A45" s="36"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="39" t="s">
+    <row r="45" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A45" s="39"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="38" t="s">
         <v>119</v>
       </c>
       <c r="D45" s="25" t="s">
@@ -4829,30 +4826,30 @@
       <c r="E45" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F45" s="38">
+      <c r="F45" s="36">
         <v>260</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="36"/>
-      <c r="B46" s="36"/>
-      <c r="C46" s="39"/>
+    <row r="46" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="39"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="38"/>
       <c r="D46" s="25" t="s">
         <v>122</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F46" s="38"/>
+      <c r="F46" s="36"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:8" ht="75">
-      <c r="A47" s="36"/>
-      <c r="B47" s="36"/>
-      <c r="C47" s="39" t="s">
+    <row r="47" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+      <c r="A47" s="39"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="38" t="s">
         <v>124</v>
       </c>
       <c r="D47" s="25" t="s">
@@ -4861,30 +4858,30 @@
       <c r="E47" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F47" s="38">
+      <c r="F47" s="36">
         <v>250000</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="1:8" ht="75">
-      <c r="A48" s="36"/>
-      <c r="B48" s="36"/>
-      <c r="C48" s="39"/>
+    <row r="48" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A48" s="39"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="38"/>
       <c r="D48" s="25" t="s">
         <v>127</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F48" s="38"/>
+      <c r="F48" s="36"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="36"/>
-      <c r="B49" s="36"/>
-      <c r="C49" s="39" t="s">
+    <row r="49" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="39"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="38" t="s">
         <v>129</v>
       </c>
       <c r="D49" s="25" t="s">
@@ -4893,30 +4890,30 @@
       <c r="E49" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F49" s="38">
+      <c r="F49" s="36">
         <v>3</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="36"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="39"/>
+    <row r="50" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="39"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="38"/>
       <c r="D50" s="25" t="s">
         <v>132</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F50" s="38"/>
+      <c r="F50" s="36"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="1:8" ht="30">
-      <c r="A51" s="36"/>
-      <c r="B51" s="36"/>
-      <c r="C51" s="39" t="s">
+    <row r="51" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A51" s="39"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="38" t="s">
         <v>134</v>
       </c>
       <c r="D51" s="25" t="s">
@@ -4925,30 +4922,30 @@
       <c r="E51" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F51" s="38">
+      <c r="F51" s="36">
         <v>0</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="1:8" ht="30">
-      <c r="A52" s="36"/>
-      <c r="B52" s="36"/>
-      <c r="C52" s="39"/>
+    <row r="52" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A52" s="39"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="38"/>
       <c r="D52" s="25" t="s">
         <v>137</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F52" s="38"/>
+      <c r="F52" s="36"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="1:8" ht="30">
-      <c r="A53" s="36"/>
-      <c r="B53" s="36"/>
-      <c r="C53" s="39" t="s">
+    <row r="53" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A53" s="39"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="38" t="s">
         <v>139</v>
       </c>
       <c r="D53" s="25" t="s">
@@ -4957,29 +4954,29 @@
       <c r="E53" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F53" s="38">
+      <c r="F53" s="36">
         <v>0</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="1:8" ht="30">
-      <c r="A54" s="36"/>
-      <c r="B54" s="36"/>
-      <c r="C54" s="39"/>
+    <row r="54" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A54" s="39"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="38"/>
       <c r="D54" s="25" t="s">
         <v>142</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F54" s="38"/>
+      <c r="F54" s="36"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="1:8" ht="60">
-      <c r="A55" s="36"/>
-      <c r="B55" s="36"/>
+    <row r="55" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A55" s="39"/>
+      <c r="B55" s="39"/>
       <c r="C55" s="1" t="s">
         <v>144</v>
       </c>
@@ -4995,9 +4992,9 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="36"/>
-      <c r="B56" s="36"/>
+    <row r="56" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="39"/>
+      <c r="B56" s="39"/>
       <c r="C56" s="1" t="s">
         <v>147</v>
       </c>
@@ -5013,10 +5010,10 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="36"/>
-      <c r="B57" s="36"/>
-      <c r="C57" s="39" t="s">
+    <row r="57" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A57" s="39"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="38" t="s">
         <v>150</v>
       </c>
       <c r="D57" s="25" t="s">
@@ -5025,29 +5022,29 @@
       <c r="E57" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F57" s="38">
+      <c r="F57" s="36">
         <v>2450000</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="1:8" ht="45">
-      <c r="A58" s="36"/>
-      <c r="B58" s="36"/>
-      <c r="C58" s="39"/>
+    <row r="58" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A58" s="39"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="38"/>
       <c r="D58" s="25" t="s">
         <v>153</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F58" s="38"/>
+      <c r="F58" s="36"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="1:8" ht="30">
-      <c r="A59" s="36"/>
-      <c r="B59" s="36"/>
+    <row r="59" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="39"/>
+      <c r="B59" s="39"/>
       <c r="C59" s="1" t="s">
         <v>155</v>
       </c>
@@ -5063,10 +5060,10 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="1:8" ht="30">
-      <c r="A60" s="36"/>
-      <c r="B60" s="36"/>
-      <c r="C60" s="39" t="s">
+    <row r="60" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A60" s="39"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="38" t="s">
         <v>158</v>
       </c>
       <c r="D60" s="3" t="s">
@@ -5075,29 +5072,29 @@
       <c r="E60" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F60" s="38">
+      <c r="F60" s="36">
         <v>11000</v>
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="1:8" ht="30">
-      <c r="A61" s="36"/>
-      <c r="B61" s="36"/>
-      <c r="C61" s="39"/>
+    <row r="61" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A61" s="39"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="38"/>
       <c r="D61" s="3" t="s">
         <v>137</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F61" s="38"/>
+      <c r="F61" s="36"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="1:8" ht="47.25" customHeight="1">
-      <c r="A62" s="36"/>
-      <c r="B62" s="36"/>
+    <row r="62" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="39"/>
+      <c r="B62" s="39"/>
       <c r="C62" s="16" t="s">
         <v>159</v>
       </c>
@@ -5113,10 +5110,10 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="36"/>
-      <c r="B63" s="36"/>
-      <c r="C63" s="39" t="s">
+    <row r="63" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A63" s="39"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="38" t="s">
         <v>162</v>
       </c>
       <c r="D63" s="25" t="s">
@@ -5125,29 +5122,29 @@
       <c r="E63" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="F63" s="38">
+      <c r="F63" s="36">
         <v>21000</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="1:8" ht="60">
-      <c r="A64" s="36"/>
-      <c r="B64" s="36"/>
-      <c r="C64" s="39"/>
+    <row r="64" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A64" s="39"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="38"/>
       <c r="D64" s="25" t="s">
         <v>165</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F64" s="38"/>
+      <c r="F64" s="36"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="1:8" ht="30">
-      <c r="A65" s="36"/>
-      <c r="B65" s="36"/>
+    <row r="65" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A65" s="39"/>
+      <c r="B65" s="39"/>
       <c r="C65" s="1" t="s">
         <v>167</v>
       </c>
@@ -5163,9 +5160,9 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="1:8" ht="60">
-      <c r="A66" s="36"/>
-      <c r="B66" s="36"/>
+    <row r="66" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A66" s="39"/>
+      <c r="B66" s="39"/>
       <c r="C66" s="1" t="s">
         <v>170</v>
       </c>
@@ -5181,9 +5178,9 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="1:8" ht="30">
-      <c r="A67" s="36"/>
-      <c r="B67" s="36"/>
+    <row r="67" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A67" s="39"/>
+      <c r="B67" s="39"/>
       <c r="C67" s="1" t="s">
         <v>173</v>
       </c>
@@ -5199,10 +5196,10 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="36"/>
-      <c r="B68" s="36"/>
-      <c r="C68" s="39" t="s">
+    <row r="68" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A68" s="39"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="38" t="s">
         <v>176</v>
       </c>
       <c r="D68" s="25" t="s">
@@ -5211,29 +5208,29 @@
       <c r="E68" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F68" s="38">
+      <c r="F68" s="36">
         <v>40700</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="36"/>
-      <c r="B69" s="36"/>
-      <c r="C69" s="39"/>
+    <row r="69" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A69" s="39"/>
+      <c r="B69" s="39"/>
+      <c r="C69" s="38"/>
       <c r="D69" s="25" t="s">
         <v>179</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="F69" s="38"/>
+      <c r="F69" s="36"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="1:8" ht="60">
-      <c r="A70" s="36"/>
-      <c r="B70" s="36"/>
+    <row r="70" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A70" s="39"/>
+      <c r="B70" s="39"/>
       <c r="C70" s="1" t="s">
         <v>181</v>
       </c>
@@ -5249,10 +5246,10 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="1:8" ht="30">
-      <c r="A71" s="36"/>
-      <c r="B71" s="36"/>
-      <c r="C71" s="39" t="s">
+    <row r="71" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A71" s="39"/>
+      <c r="B71" s="39"/>
+      <c r="C71" s="38" t="s">
         <v>184</v>
       </c>
       <c r="D71" s="25" t="s">
@@ -5261,30 +5258,30 @@
       <c r="E71" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F71" s="38">
+      <c r="F71" s="36">
         <v>9400</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="1:8" ht="30">
-      <c r="A72" s="36"/>
-      <c r="B72" s="36"/>
-      <c r="C72" s="39"/>
+    <row r="72" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A72" s="39"/>
+      <c r="B72" s="39"/>
+      <c r="C72" s="38"/>
       <c r="D72" s="25" t="s">
         <v>187</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F72" s="38"/>
+      <c r="F72" s="36"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="1:8">
-      <c r="A73" s="36"/>
-      <c r="B73" s="36"/>
-      <c r="C73" s="39" t="s">
+    <row r="73" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A73" s="39"/>
+      <c r="B73" s="39"/>
+      <c r="C73" s="38" t="s">
         <v>189</v>
       </c>
       <c r="D73" s="25" t="s">
@@ -5293,30 +5290,30 @@
       <c r="E73" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F73" s="38">
+      <c r="F73" s="36">
         <v>89000</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
     </row>
-    <row r="74" spans="1:8">
-      <c r="A74" s="36"/>
-      <c r="B74" s="36"/>
-      <c r="C74" s="39"/>
+    <row r="74" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A74" s="39"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="38"/>
       <c r="D74" s="25" t="s">
         <v>192</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F74" s="38"/>
+      <c r="F74" s="36"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="1:8" ht="30">
-      <c r="A75" s="36"/>
-      <c r="B75" s="36"/>
-      <c r="C75" s="39" t="s">
+    <row r="75" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A75" s="39"/>
+      <c r="B75" s="39"/>
+      <c r="C75" s="38" t="s">
         <v>194</v>
       </c>
       <c r="D75" s="25" t="s">
@@ -5325,30 +5322,30 @@
       <c r="E75" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F75" s="38">
+      <c r="F75" s="36">
         <v>80</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
     </row>
-    <row r="76" spans="1:8" ht="30">
-      <c r="A76" s="36"/>
-      <c r="B76" s="36"/>
-      <c r="C76" s="39"/>
+    <row r="76" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A76" s="39"/>
+      <c r="B76" s="39"/>
+      <c r="C76" s="38"/>
       <c r="D76" s="25" t="s">
         <v>197</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F76" s="38"/>
+      <c r="F76" s="36"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="1:8" ht="60">
-      <c r="A77" s="36"/>
-      <c r="B77" s="36"/>
-      <c r="C77" s="39" t="s">
+    <row r="77" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A77" s="39"/>
+      <c r="B77" s="39"/>
+      <c r="C77" s="38" t="s">
         <v>199</v>
       </c>
       <c r="D77" s="25" t="s">
@@ -5357,30 +5354,30 @@
       <c r="E77" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F77" s="38">
+      <c r="F77" s="36">
         <v>1900</v>
       </c>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
     </row>
-    <row r="78" spans="1:8" ht="45">
-      <c r="A78" s="36"/>
-      <c r="B78" s="36"/>
-      <c r="C78" s="39"/>
+    <row r="78" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A78" s="39"/>
+      <c r="B78" s="39"/>
+      <c r="C78" s="38"/>
       <c r="D78" s="25" t="s">
         <v>202</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F78" s="38"/>
+      <c r="F78" s="36"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
     </row>
-    <row r="79" spans="1:8" ht="30">
-      <c r="A79" s="36"/>
-      <c r="B79" s="36"/>
-      <c r="C79" s="39" t="s">
+    <row r="79" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A79" s="39"/>
+      <c r="B79" s="39"/>
+      <c r="C79" s="38" t="s">
         <v>204</v>
       </c>
       <c r="D79" s="25" t="s">
@@ -5389,29 +5386,29 @@
       <c r="E79" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F79" s="38">
+      <c r="F79" s="36">
         <v>400</v>
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
     </row>
-    <row r="80" spans="1:8" ht="45">
-      <c r="A80" s="36"/>
-      <c r="B80" s="36"/>
-      <c r="C80" s="39"/>
+    <row r="80" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A80" s="39"/>
+      <c r="B80" s="39"/>
+      <c r="C80" s="38"/>
       <c r="D80" s="25" t="s">
         <v>207</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="F80" s="38"/>
+      <c r="F80" s="36"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="1:8" ht="45">
-      <c r="A81" s="36"/>
-      <c r="B81" s="36"/>
+    <row r="81" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A81" s="39"/>
+      <c r="B81" s="39"/>
       <c r="C81" s="1" t="s">
         <v>209</v>
       </c>
@@ -5427,10 +5424,10 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="1:8">
-      <c r="A82" s="36"/>
-      <c r="B82" s="36"/>
-      <c r="C82" s="39" t="s">
+    <row r="82" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A82" s="39"/>
+      <c r="B82" s="39"/>
+      <c r="C82" s="38" t="s">
         <v>212</v>
       </c>
       <c r="D82" s="25" t="s">
@@ -5439,43 +5436,43 @@
       <c r="E82" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="F82" s="38">
+      <c r="F82" s="36">
         <v>50</v>
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="1:8">
-      <c r="A83" s="36"/>
-      <c r="B83" s="36"/>
-      <c r="C83" s="39"/>
+    <row r="83" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A83" s="39"/>
+      <c r="B83" s="39"/>
+      <c r="C83" s="38"/>
       <c r="D83" s="25" t="s">
         <v>215</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F83" s="38"/>
+      <c r="F83" s="36"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
     </row>
-    <row r="84" spans="1:8">
-      <c r="A84" s="36"/>
-      <c r="B84" s="36"/>
-      <c r="C84" s="39"/>
+    <row r="84" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A84" s="39"/>
+      <c r="B84" s="39"/>
+      <c r="C84" s="38"/>
       <c r="D84" s="25" t="s">
         <v>217</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="F84" s="38"/>
+      <c r="F84" s="36"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
     </row>
-    <row r="85" spans="1:8" ht="30">
-      <c r="A85" s="36"/>
-      <c r="B85" s="36"/>
+    <row r="85" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A85" s="39"/>
+      <c r="B85" s="39"/>
       <c r="C85" s="1" t="s">
         <v>219</v>
       </c>
@@ -5491,10 +5488,10 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
     </row>
-    <row r="86" spans="1:8" ht="45">
-      <c r="A86" s="36"/>
-      <c r="B86" s="36"/>
-      <c r="C86" s="39" t="s">
+    <row r="86" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A86" s="39"/>
+      <c r="B86" s="39"/>
+      <c r="C86" s="38" t="s">
         <v>222</v>
       </c>
       <c r="D86" s="25" t="s">
@@ -5503,30 +5500,30 @@
       <c r="E86" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="F86" s="38">
+      <c r="F86" s="36">
         <v>42000</v>
       </c>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
     </row>
-    <row r="87" spans="1:8" ht="45">
-      <c r="A87" s="36"/>
-      <c r="B87" s="36"/>
-      <c r="C87" s="39"/>
+    <row r="87" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A87" s="39"/>
+      <c r="B87" s="39"/>
+      <c r="C87" s="38"/>
       <c r="D87" s="25" t="s">
         <v>225</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="F87" s="38"/>
+      <c r="F87" s="36"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
     </row>
-    <row r="88" spans="1:8" ht="45">
-      <c r="A88" s="36"/>
-      <c r="B88" s="36"/>
-      <c r="C88" s="39" t="s">
+    <row r="88" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A88" s="39"/>
+      <c r="B88" s="39"/>
+      <c r="C88" s="38" t="s">
         <v>227</v>
       </c>
       <c r="D88" s="25" t="s">
@@ -5535,30 +5532,30 @@
       <c r="E88" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="F88" s="38">
+      <c r="F88" s="36">
         <v>593000</v>
       </c>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
     </row>
-    <row r="89" spans="1:8" ht="45">
-      <c r="A89" s="36"/>
-      <c r="B89" s="36"/>
-      <c r="C89" s="39"/>
+    <row r="89" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A89" s="39"/>
+      <c r="B89" s="39"/>
+      <c r="C89" s="38"/>
       <c r="D89" s="3" t="s">
         <v>230</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="F89" s="38"/>
+      <c r="F89" s="36"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="1:8">
-      <c r="A90" s="36"/>
-      <c r="B90" s="36"/>
-      <c r="C90" s="39" t="s">
+    <row r="90" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A90" s="39"/>
+      <c r="B90" s="39"/>
+      <c r="C90" s="38" t="s">
         <v>232</v>
       </c>
       <c r="D90" s="3" t="s">
@@ -5567,29 +5564,29 @@
       <c r="E90" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="F90" s="38">
+      <c r="F90" s="36">
         <v>27000</v>
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
     </row>
-    <row r="91" spans="1:8">
-      <c r="A91" s="36"/>
-      <c r="B91" s="36"/>
-      <c r="C91" s="39"/>
+    <row r="91" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A91" s="39"/>
+      <c r="B91" s="39"/>
+      <c r="C91" s="38"/>
       <c r="D91" s="3" t="s">
         <v>235</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="F91" s="38"/>
+      <c r="F91" s="36"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
     </row>
-    <row r="92" spans="1:8" ht="30">
-      <c r="A92" s="36"/>
-      <c r="B92" s="36"/>
+    <row r="92" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A92" s="39"/>
+      <c r="B92" s="39"/>
       <c r="C92" s="1" t="s">
         <v>237</v>
       </c>
@@ -5605,9 +5602,9 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="1:8" ht="30">
-      <c r="A93" s="36"/>
-      <c r="B93" s="36"/>
+    <row r="93" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A93" s="39"/>
+      <c r="B93" s="39"/>
       <c r="C93" s="1" t="s">
         <v>240</v>
       </c>
@@ -5623,9 +5620,9 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
     </row>
-    <row r="94" spans="1:8" ht="30">
-      <c r="A94" s="36"/>
-      <c r="B94" s="36"/>
+    <row r="94" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A94" s="39"/>
+      <c r="B94" s="39"/>
       <c r="C94" s="1" t="s">
         <v>243</v>
       </c>
@@ -5641,10 +5638,10 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="1:8" ht="30">
-      <c r="A95" s="36"/>
-      <c r="B95" s="36"/>
-      <c r="C95" s="39" t="s">
+    <row r="95" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A95" s="39"/>
+      <c r="B95" s="39"/>
+      <c r="C95" s="38" t="s">
         <v>246</v>
       </c>
       <c r="D95" s="25" t="s">
@@ -5653,44 +5650,44 @@
       <c r="E95" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="F95" s="38">
+      <c r="F95" s="36">
         <v>1600</v>
       </c>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
     </row>
-    <row r="96" spans="1:8" ht="30">
-      <c r="A96" s="36"/>
-      <c r="B96" s="36"/>
-      <c r="C96" s="39"/>
+    <row r="96" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A96" s="39"/>
+      <c r="B96" s="39"/>
+      <c r="C96" s="38"/>
       <c r="D96" s="3" t="s">
         <v>247</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="F96" s="38"/>
+      <c r="F96" s="36"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
     </row>
-    <row r="97" spans="1:8" ht="30">
-      <c r="A97" s="36"/>
-      <c r="B97" s="36"/>
-      <c r="C97" s="39"/>
+    <row r="97" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A97" s="39"/>
+      <c r="B97" s="39"/>
+      <c r="C97" s="38"/>
       <c r="D97" s="3" t="s">
         <v>249</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="F97" s="38"/>
+      <c r="F97" s="36"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
     </row>
-    <row r="98" spans="1:8" ht="30">
-      <c r="A98" s="36"/>
-      <c r="B98" s="36"/>
-      <c r="C98" s="39" t="s">
+    <row r="98" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A98" s="39"/>
+      <c r="B98" s="39"/>
+      <c r="C98" s="38" t="s">
         <v>251</v>
       </c>
       <c r="D98" s="3" t="s">
@@ -5699,30 +5696,30 @@
       <c r="E98" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="F98" s="38">
+      <c r="F98" s="36">
         <v>49000</v>
       </c>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
     </row>
-    <row r="99" spans="1:8" ht="30">
-      <c r="A99" s="36"/>
-      <c r="B99" s="36"/>
-      <c r="C99" s="39"/>
+    <row r="99" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A99" s="39"/>
+      <c r="B99" s="39"/>
+      <c r="C99" s="38"/>
       <c r="D99" s="3" t="s">
         <v>254</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="F99" s="38"/>
+      <c r="F99" s="36"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
     </row>
-    <row r="100" spans="1:8" ht="30">
-      <c r="A100" s="36"/>
-      <c r="B100" s="36"/>
-      <c r="C100" s="39" t="s">
+    <row r="100" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A100" s="39"/>
+      <c r="B100" s="39"/>
+      <c r="C100" s="38" t="s">
         <v>256</v>
       </c>
       <c r="D100" s="3" t="s">
@@ -5731,30 +5728,30 @@
       <c r="E100" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="F100" s="38">
+      <c r="F100" s="36">
         <v>49000</v>
       </c>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
     </row>
-    <row r="101" spans="1:8" ht="30">
-      <c r="A101" s="36"/>
-      <c r="B101" s="36"/>
-      <c r="C101" s="39"/>
+    <row r="101" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A101" s="39"/>
+      <c r="B101" s="39"/>
+      <c r="C101" s="38"/>
       <c r="D101" s="3" t="s">
         <v>259</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="F101" s="38"/>
+      <c r="F101" s="36"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
     </row>
-    <row r="102" spans="1:8">
-      <c r="A102" s="36"/>
-      <c r="B102" s="36"/>
-      <c r="C102" s="39" t="s">
+    <row r="102" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A102" s="39"/>
+      <c r="B102" s="39"/>
+      <c r="C102" s="38" t="s">
         <v>261</v>
       </c>
       <c r="D102" s="3" t="s">
@@ -5763,29 +5760,29 @@
       <c r="E102" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="F102" s="38">
+      <c r="F102" s="36">
         <v>1</v>
       </c>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
     </row>
-    <row r="103" spans="1:8">
-      <c r="A103" s="36"/>
-      <c r="B103" s="36"/>
-      <c r="C103" s="39"/>
+    <row r="103" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A103" s="39"/>
+      <c r="B103" s="39"/>
+      <c r="C103" s="38"/>
       <c r="D103" s="3" t="s">
         <v>264</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="F103" s="38"/>
+      <c r="F103" s="36"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
     </row>
-    <row r="104" spans="1:8" ht="75">
-      <c r="A104" s="36"/>
-      <c r="B104" s="36"/>
+    <row r="104" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A104" s="39"/>
+      <c r="B104" s="39"/>
       <c r="C104" s="1" t="s">
         <v>266</v>
       </c>
@@ -5801,9 +5798,9 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
     </row>
-    <row r="105" spans="1:8">
-      <c r="A105" s="36"/>
-      <c r="B105" s="36"/>
+    <row r="105" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A105" s="39"/>
+      <c r="B105" s="39"/>
       <c r="C105" s="1" t="s">
         <v>269</v>
       </c>
@@ -5819,10 +5816,10 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
     </row>
-    <row r="106" spans="1:8" ht="30">
-      <c r="A106" s="36"/>
-      <c r="B106" s="36"/>
-      <c r="C106" s="39" t="s">
+    <row r="106" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A106" s="39"/>
+      <c r="B106" s="39"/>
+      <c r="C106" s="38" t="s">
         <v>272</v>
       </c>
       <c r="D106" s="3" t="s">
@@ -5831,30 +5828,30 @@
       <c r="E106" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="F106" s="38">
+      <c r="F106" s="36">
         <v>256</v>
       </c>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
     </row>
-    <row r="107" spans="1:8" ht="30">
-      <c r="A107" s="36"/>
-      <c r="B107" s="36"/>
-      <c r="C107" s="39"/>
+    <row r="107" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A107" s="39"/>
+      <c r="B107" s="39"/>
+      <c r="C107" s="38"/>
       <c r="D107" s="3" t="s">
         <v>275</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="F107" s="38"/>
+      <c r="F107" s="36"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
     </row>
-    <row r="108" spans="1:8">
-      <c r="A108" s="36"/>
-      <c r="B108" s="36"/>
-      <c r="C108" s="39" t="s">
+    <row r="108" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A108" s="39"/>
+      <c r="B108" s="39"/>
+      <c r="C108" s="38" t="s">
         <v>277</v>
       </c>
       <c r="D108" s="3" t="s">
@@ -5863,29 +5860,29 @@
       <c r="E108" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="F108" s="38">
+      <c r="F108" s="36">
         <v>33000</v>
       </c>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
     </row>
-    <row r="109" spans="1:8">
-      <c r="A109" s="36"/>
-      <c r="B109" s="36"/>
-      <c r="C109" s="39"/>
+    <row r="109" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A109" s="39"/>
+      <c r="B109" s="39"/>
+      <c r="C109" s="38"/>
       <c r="D109" s="3" t="s">
         <v>280</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="F109" s="38"/>
+      <c r="F109" s="36"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
     </row>
-    <row r="110" spans="1:8" ht="61.5" customHeight="1">
-      <c r="A110" s="36"/>
-      <c r="B110" s="36"/>
+    <row r="110" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="39"/>
+      <c r="B110" s="39"/>
       <c r="C110" s="18" t="s">
         <v>282</v>
       </c>
@@ -5903,9 +5900,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="30">
-      <c r="A111" s="36"/>
-      <c r="B111" s="36"/>
+    <row r="111" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A111" s="39"/>
+      <c r="B111" s="39"/>
       <c r="C111" s="18" t="s">
         <v>285</v>
       </c>
@@ -5923,7 +5920,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="4.5" customHeight="1">
+    <row r="112" spans="1:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="5"/>
@@ -5933,14 +5930,14 @@
       <c r="G112" s="5"/>
       <c r="H112" s="5"/>
     </row>
-    <row r="113" spans="1:8">
-      <c r="A113" s="36" t="s">
+    <row r="113" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A113" s="39" t="s">
         <v>288</v>
       </c>
-      <c r="B113" s="36" t="s">
+      <c r="B113" s="39" t="s">
         <v>289</v>
       </c>
-      <c r="C113" s="39" t="s">
+      <c r="C113" s="38" t="s">
         <v>290</v>
       </c>
       <c r="D113" s="3" t="s">
@@ -5949,29 +5946,29 @@
       <c r="E113" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="F113" s="38">
+      <c r="F113" s="36">
         <v>14900</v>
       </c>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
     </row>
-    <row r="114" spans="1:8">
-      <c r="A114" s="36"/>
-      <c r="B114" s="36"/>
-      <c r="C114" s="39"/>
+    <row r="114" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A114" s="39"/>
+      <c r="B114" s="39"/>
+      <c r="C114" s="38"/>
       <c r="D114" s="3" t="s">
         <v>293</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="F114" s="38"/>
+      <c r="F114" s="36"/>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
     </row>
-    <row r="115" spans="1:8">
-      <c r="A115" s="36"/>
-      <c r="B115" s="36"/>
+    <row r="115" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A115" s="39"/>
+      <c r="B115" s="39"/>
       <c r="C115" s="1" t="s">
         <v>295</v>
       </c>
@@ -5987,9 +5984,9 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
     </row>
-    <row r="116" spans="1:8" ht="45">
-      <c r="A116" s="36"/>
-      <c r="B116" s="36"/>
+    <row r="116" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A116" s="39"/>
+      <c r="B116" s="39"/>
       <c r="C116" s="1" t="s">
         <v>298</v>
       </c>
@@ -6005,9 +6002,9 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
     </row>
-    <row r="117" spans="1:8" ht="30">
-      <c r="A117" s="36"/>
-      <c r="B117" s="36"/>
+    <row r="117" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A117" s="39"/>
+      <c r="B117" s="39"/>
       <c r="C117" s="1" t="s">
         <v>301</v>
       </c>
@@ -6023,9 +6020,9 @@
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
     </row>
-    <row r="118" spans="1:8">
-      <c r="A118" s="36"/>
-      <c r="B118" s="36"/>
+    <row r="118" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A118" s="39"/>
+      <c r="B118" s="39"/>
       <c r="C118" s="1" t="s">
         <v>304</v>
       </c>
@@ -6041,9 +6038,9 @@
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
     </row>
-    <row r="119" spans="1:8">
-      <c r="A119" s="36"/>
-      <c r="B119" s="36"/>
+    <row r="119" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A119" s="39"/>
+      <c r="B119" s="39"/>
       <c r="C119" s="1" t="s">
         <v>306</v>
       </c>
@@ -6059,9 +6056,9 @@
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
     </row>
-    <row r="120" spans="1:8">
-      <c r="A120" s="36"/>
-      <c r="B120" s="36"/>
+    <row r="120" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A120" s="39"/>
+      <c r="B120" s="39"/>
       <c r="C120" s="1" t="s">
         <v>309</v>
       </c>
@@ -6077,10 +6074,10 @@
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
     </row>
-    <row r="121" spans="1:8">
-      <c r="A121" s="36"/>
-      <c r="B121" s="36"/>
-      <c r="C121" s="39" t="s">
+    <row r="121" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A121" s="39"/>
+      <c r="B121" s="39"/>
+      <c r="C121" s="38" t="s">
         <v>312</v>
       </c>
       <c r="D121" s="3" t="s">
@@ -6089,29 +6086,29 @@
       <c r="E121" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="F121" s="38">
+      <c r="F121" s="36">
         <v>880000</v>
       </c>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
     </row>
-    <row r="122" spans="1:8">
-      <c r="A122" s="36"/>
-      <c r="B122" s="36"/>
-      <c r="C122" s="39"/>
+    <row r="122" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A122" s="39"/>
+      <c r="B122" s="39"/>
+      <c r="C122" s="38"/>
       <c r="D122" s="3" t="s">
         <v>315</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="F122" s="38"/>
+      <c r="F122" s="36"/>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
     </row>
-    <row r="123" spans="1:8">
-      <c r="A123" s="36"/>
-      <c r="B123" s="36"/>
+    <row r="123" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A123" s="39"/>
+      <c r="B123" s="39"/>
       <c r="C123" s="1" t="s">
         <v>317</v>
       </c>
@@ -6127,9 +6124,9 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
     </row>
-    <row r="124" spans="1:8">
-      <c r="A124" s="36"/>
-      <c r="B124" s="36"/>
+    <row r="124" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A124" s="39"/>
+      <c r="B124" s="39"/>
       <c r="C124" s="1" t="s">
         <v>320</v>
       </c>
@@ -6145,9 +6142,9 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
     </row>
-    <row r="125" spans="1:8">
-      <c r="A125" s="36"/>
-      <c r="B125" s="36"/>
+    <row r="125" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A125" s="39"/>
+      <c r="B125" s="39"/>
       <c r="C125" s="1" t="s">
         <v>323</v>
       </c>
@@ -6163,9 +6160,9 @@
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
     </row>
-    <row r="126" spans="1:8">
-      <c r="A126" s="36"/>
-      <c r="B126" s="36"/>
+    <row r="126" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A126" s="39"/>
+      <c r="B126" s="39"/>
       <c r="C126" s="1" t="s">
         <v>326</v>
       </c>
@@ -6181,10 +6178,10 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
     </row>
-    <row r="127" spans="1:8">
-      <c r="A127" s="36"/>
-      <c r="B127" s="36"/>
-      <c r="C127" s="39" t="s">
+    <row r="127" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A127" s="39"/>
+      <c r="B127" s="39"/>
+      <c r="C127" s="38" t="s">
         <v>329</v>
       </c>
       <c r="D127" s="3" t="s">
@@ -6193,44 +6190,44 @@
       <c r="E127" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="F127" s="38">
+      <c r="F127" s="36">
         <v>1007000</v>
       </c>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
     </row>
-    <row r="128" spans="1:8">
-      <c r="A128" s="36"/>
-      <c r="B128" s="36"/>
-      <c r="C128" s="39"/>
+    <row r="128" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A128" s="39"/>
+      <c r="B128" s="39"/>
+      <c r="C128" s="38"/>
       <c r="D128" s="3" t="s">
         <v>332</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="F128" s="38"/>
+      <c r="F128" s="36"/>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
     </row>
-    <row r="129" spans="1:8" ht="30">
-      <c r="A129" s="36"/>
-      <c r="B129" s="36"/>
-      <c r="C129" s="39"/>
+    <row r="129" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A129" s="39"/>
+      <c r="B129" s="39"/>
+      <c r="C129" s="38"/>
       <c r="D129" s="3" t="s">
         <v>334</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="F129" s="38"/>
+      <c r="F129" s="36"/>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
     </row>
-    <row r="130" spans="1:8">
-      <c r="A130" s="36"/>
-      <c r="B130" s="36"/>
-      <c r="C130" s="39" t="s">
+    <row r="130" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A130" s="39"/>
+      <c r="B130" s="39"/>
+      <c r="C130" s="38" t="s">
         <v>336</v>
       </c>
       <c r="D130" s="3" t="s">
@@ -6239,29 +6236,29 @@
       <c r="E130" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="F130" s="38">
+      <c r="F130" s="36">
         <v>30</v>
       </c>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
     </row>
-    <row r="131" spans="1:8">
-      <c r="A131" s="36"/>
-      <c r="B131" s="36"/>
-      <c r="C131" s="39"/>
+    <row r="131" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A131" s="39"/>
+      <c r="B131" s="39"/>
+      <c r="C131" s="38"/>
       <c r="D131" s="3" t="s">
         <v>339</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="F131" s="38"/>
+      <c r="F131" s="36"/>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
     </row>
-    <row r="132" spans="1:8" ht="30">
-      <c r="A132" s="36"/>
-      <c r="B132" s="36"/>
+    <row r="132" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A132" s="39"/>
+      <c r="B132" s="39"/>
       <c r="C132" s="8" t="s">
         <v>341</v>
       </c>
@@ -6277,9 +6274,9 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
     </row>
-    <row r="133" spans="1:8">
-      <c r="A133" s="36"/>
-      <c r="B133" s="36"/>
+    <row r="133" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A133" s="39"/>
+      <c r="B133" s="39"/>
       <c r="C133" s="1" t="s">
         <v>344</v>
       </c>
@@ -6295,9 +6292,9 @@
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
     </row>
-    <row r="134" spans="1:8">
-      <c r="A134" s="36"/>
-      <c r="B134" s="36"/>
+    <row r="134" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A134" s="39"/>
+      <c r="B134" s="39"/>
       <c r="C134" s="1" t="s">
         <v>347</v>
       </c>
@@ -6313,9 +6310,9 @@
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
     </row>
-    <row r="135" spans="1:8" ht="30">
-      <c r="A135" s="36"/>
-      <c r="B135" s="36"/>
+    <row r="135" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A135" s="39"/>
+      <c r="B135" s="39"/>
       <c r="C135" s="9" t="s">
         <v>350</v>
       </c>
@@ -6329,9 +6326,9 @@
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
     </row>
-    <row r="136" spans="1:8">
-      <c r="A136" s="36"/>
-      <c r="B136" s="36"/>
+    <row r="136" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A136" s="39"/>
+      <c r="B136" s="39"/>
       <c r="C136" s="1" t="s">
         <v>352</v>
       </c>
@@ -6347,9 +6344,9 @@
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
     </row>
-    <row r="137" spans="1:8">
-      <c r="A137" s="36"/>
-      <c r="B137" s="36"/>
+    <row r="137" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A137" s="39"/>
+      <c r="B137" s="39"/>
       <c r="C137" s="1" t="s">
         <v>355</v>
       </c>
@@ -6365,10 +6362,10 @@
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
     </row>
-    <row r="138" spans="1:8">
-      <c r="A138" s="36"/>
-      <c r="B138" s="36"/>
-      <c r="C138" s="39" t="s">
+    <row r="138" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A138" s="39"/>
+      <c r="B138" s="39"/>
+      <c r="C138" s="38" t="s">
         <v>358</v>
       </c>
       <c r="D138" s="3" t="s">
@@ -6377,30 +6374,30 @@
       <c r="E138" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="F138" s="38">
+      <c r="F138" s="36">
         <v>68400</v>
       </c>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
     </row>
-    <row r="139" spans="1:8">
-      <c r="A139" s="36"/>
-      <c r="B139" s="36"/>
-      <c r="C139" s="39"/>
+    <row r="139" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A139" s="39"/>
+      <c r="B139" s="39"/>
+      <c r="C139" s="38"/>
       <c r="D139" s="3" t="s">
         <v>361</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="F139" s="38"/>
+      <c r="F139" s="36"/>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
     </row>
-    <row r="140" spans="1:8">
-      <c r="A140" s="36"/>
-      <c r="B140" s="36"/>
-      <c r="C140" s="39" t="s">
+    <row r="140" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A140" s="39"/>
+      <c r="B140" s="39"/>
+      <c r="C140" s="38" t="s">
         <v>363</v>
       </c>
       <c r="D140" s="3" t="s">
@@ -6409,43 +6406,43 @@
       <c r="E140" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="F140" s="38">
+      <c r="F140" s="36">
         <v>68200</v>
       </c>
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
     </row>
-    <row r="141" spans="1:8">
-      <c r="A141" s="36"/>
-      <c r="B141" s="36"/>
-      <c r="C141" s="39"/>
+    <row r="141" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A141" s="39"/>
+      <c r="B141" s="39"/>
+      <c r="C141" s="38"/>
       <c r="D141" s="3" t="s">
         <v>366</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="F141" s="38"/>
+      <c r="F141" s="36"/>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
     </row>
-    <row r="142" spans="1:8">
-      <c r="A142" s="36"/>
-      <c r="B142" s="36"/>
-      <c r="C142" s="39"/>
+    <row r="142" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A142" s="39"/>
+      <c r="B142" s="39"/>
+      <c r="C142" s="38"/>
       <c r="D142" s="3" t="s">
         <v>368</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="F142" s="38"/>
+      <c r="F142" s="36"/>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
     </row>
-    <row r="143" spans="1:8">
-      <c r="A143" s="36"/>
-      <c r="B143" s="36"/>
+    <row r="143" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A143" s="39"/>
+      <c r="B143" s="39"/>
       <c r="C143" s="43" t="s">
         <v>370</v>
       </c>
@@ -6455,15 +6452,15 @@
       <c r="E143" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="F143" s="38">
+      <c r="F143" s="36">
         <v>43400</v>
       </c>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
     </row>
-    <row r="144" spans="1:8">
-      <c r="A144" s="36"/>
-      <c r="B144" s="36"/>
+    <row r="144" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A144" s="39"/>
+      <c r="B144" s="39"/>
       <c r="C144" s="43"/>
       <c r="D144" s="3" t="s">
         <v>371</v>
@@ -6471,14 +6468,14 @@
       <c r="E144" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="F144" s="38"/>
+      <c r="F144" s="36"/>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
     </row>
-    <row r="145" spans="1:8">
-      <c r="A145" s="36"/>
-      <c r="B145" s="36"/>
-      <c r="C145" s="39" t="s">
+    <row r="145" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A145" s="39"/>
+      <c r="B145" s="39"/>
+      <c r="C145" s="38" t="s">
         <v>374</v>
       </c>
       <c r="D145" s="3" t="s">
@@ -6487,43 +6484,43 @@
       <c r="E145" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="F145" s="38">
+      <c r="F145" s="36">
         <v>96900</v>
       </c>
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
     </row>
-    <row r="146" spans="1:8">
-      <c r="A146" s="36"/>
-      <c r="B146" s="36"/>
-      <c r="C146" s="39"/>
+    <row r="146" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A146" s="39"/>
+      <c r="B146" s="39"/>
+      <c r="C146" s="38"/>
       <c r="D146" s="3" t="s">
         <v>375</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="F146" s="38"/>
+      <c r="F146" s="36"/>
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
     </row>
-    <row r="147" spans="1:8">
-      <c r="A147" s="36"/>
-      <c r="B147" s="36"/>
-      <c r="C147" s="39"/>
+    <row r="147" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A147" s="39"/>
+      <c r="B147" s="39"/>
+      <c r="C147" s="38"/>
       <c r="D147" s="3" t="s">
         <v>378</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="F147" s="38"/>
+      <c r="F147" s="36"/>
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
     </row>
-    <row r="148" spans="1:8">
-      <c r="A148" s="36"/>
-      <c r="B148" s="36"/>
+    <row r="148" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A148" s="39"/>
+      <c r="B148" s="39"/>
       <c r="C148" s="1" t="s">
         <v>380</v>
       </c>
@@ -6539,10 +6536,10 @@
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
     </row>
-    <row r="149" spans="1:8">
-      <c r="A149" s="36"/>
-      <c r="B149" s="36"/>
-      <c r="C149" s="39" t="s">
+    <row r="149" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A149" s="39"/>
+      <c r="B149" s="39"/>
+      <c r="C149" s="38" t="s">
         <v>383</v>
       </c>
       <c r="D149" s="3" t="s">
@@ -6551,30 +6548,30 @@
       <c r="E149" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="F149" s="38">
+      <c r="F149" s="36">
         <v>169800</v>
       </c>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
     </row>
-    <row r="150" spans="1:8">
-      <c r="A150" s="36"/>
-      <c r="B150" s="36"/>
-      <c r="C150" s="39"/>
+    <row r="150" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A150" s="39"/>
+      <c r="B150" s="39"/>
+      <c r="C150" s="38"/>
       <c r="D150" s="3" t="s">
         <v>384</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="F150" s="38"/>
+      <c r="F150" s="36"/>
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
     </row>
-    <row r="151" spans="1:8">
-      <c r="A151" s="36"/>
-      <c r="B151" s="36"/>
-      <c r="C151" s="39" t="s">
+    <row r="151" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A151" s="39"/>
+      <c r="B151" s="39"/>
+      <c r="C151" s="38" t="s">
         <v>387</v>
       </c>
       <c r="D151" s="3" t="s">
@@ -6583,30 +6580,30 @@
       <c r="E151" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="F151" s="41">
+      <c r="F151" s="37">
         <v>1001070</v>
       </c>
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
     </row>
-    <row r="152" spans="1:8">
-      <c r="A152" s="36"/>
-      <c r="B152" s="36"/>
-      <c r="C152" s="39"/>
+    <row r="152" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A152" s="39"/>
+      <c r="B152" s="39"/>
+      <c r="C152" s="38"/>
       <c r="D152" s="3" t="s">
         <v>388</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="F152" s="41"/>
+      <c r="F152" s="37"/>
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
     </row>
-    <row r="153" spans="1:8">
-      <c r="A153" s="36"/>
-      <c r="B153" s="36"/>
-      <c r="C153" s="39" t="s">
+    <row r="153" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A153" s="39"/>
+      <c r="B153" s="39"/>
+      <c r="C153" s="38" t="s">
         <v>391</v>
       </c>
       <c r="D153" s="3" t="s">
@@ -6615,30 +6612,30 @@
       <c r="E153" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="F153" s="38">
+      <c r="F153" s="36">
         <v>50200</v>
       </c>
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
     </row>
-    <row r="154" spans="1:8">
-      <c r="A154" s="36"/>
-      <c r="B154" s="36"/>
-      <c r="C154" s="39"/>
+    <row r="154" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A154" s="39"/>
+      <c r="B154" s="39"/>
+      <c r="C154" s="38"/>
       <c r="D154" s="3" t="s">
         <v>392</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="F154" s="38"/>
+      <c r="F154" s="36"/>
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
     </row>
-    <row r="155" spans="1:8">
-      <c r="A155" s="36"/>
-      <c r="B155" s="36"/>
-      <c r="C155" s="39" t="s">
+    <row r="155" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A155" s="39"/>
+      <c r="B155" s="39"/>
+      <c r="C155" s="38" t="s">
         <v>395</v>
       </c>
       <c r="D155" s="3" t="s">
@@ -6647,29 +6644,29 @@
       <c r="E155" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="F155" s="38">
+      <c r="F155" s="36">
         <v>1040570</v>
       </c>
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
     </row>
-    <row r="156" spans="1:8">
-      <c r="A156" s="36"/>
-      <c r="B156" s="36"/>
-      <c r="C156" s="39"/>
+    <row r="156" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A156" s="39"/>
+      <c r="B156" s="39"/>
+      <c r="C156" s="38"/>
       <c r="D156" s="3" t="s">
         <v>398</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="F156" s="38"/>
+      <c r="F156" s="36"/>
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
     </row>
-    <row r="157" spans="1:8">
-      <c r="A157" s="36"/>
-      <c r="B157" s="36"/>
+    <row r="157" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A157" s="39"/>
+      <c r="B157" s="39"/>
       <c r="C157" s="1" t="s">
         <v>400</v>
       </c>
@@ -6685,10 +6682,10 @@
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
     </row>
-    <row r="158" spans="1:8">
-      <c r="A158" s="36"/>
-      <c r="B158" s="36"/>
-      <c r="C158" s="39" t="s">
+    <row r="158" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A158" s="39"/>
+      <c r="B158" s="39"/>
+      <c r="C158" s="38" t="s">
         <v>403</v>
       </c>
       <c r="D158" s="3" t="s">
@@ -6697,29 +6694,29 @@
       <c r="E158" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="F158" s="38">
+      <c r="F158" s="36">
         <v>1025200</v>
       </c>
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
     </row>
-    <row r="159" spans="1:8">
-      <c r="A159" s="36"/>
-      <c r="B159" s="36"/>
-      <c r="C159" s="39"/>
+    <row r="159" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A159" s="39"/>
+      <c r="B159" s="39"/>
+      <c r="C159" s="38"/>
       <c r="D159" s="3" t="s">
         <v>406</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F159" s="38"/>
+      <c r="F159" s="36"/>
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
     </row>
-    <row r="160" spans="1:8">
-      <c r="A160" s="36"/>
-      <c r="B160" s="36"/>
+    <row r="160" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A160" s="39"/>
+      <c r="B160" s="39"/>
       <c r="C160" s="1" t="s">
         <v>408</v>
       </c>
@@ -6735,10 +6732,10 @@
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
     </row>
-    <row r="161" spans="1:8">
-      <c r="A161" s="36"/>
-      <c r="B161" s="36"/>
-      <c r="C161" s="39" t="s">
+    <row r="161" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A161" s="39"/>
+      <c r="B161" s="39"/>
+      <c r="C161" s="38" t="s">
         <v>411</v>
       </c>
       <c r="D161" s="3" t="s">
@@ -6747,43 +6744,43 @@
       <c r="E161" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="F161" s="38">
+      <c r="F161" s="36">
         <v>26450</v>
       </c>
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
     </row>
-    <row r="162" spans="1:8">
-      <c r="A162" s="36"/>
-      <c r="B162" s="36"/>
-      <c r="C162" s="39"/>
+    <row r="162" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A162" s="39"/>
+      <c r="B162" s="39"/>
+      <c r="C162" s="38"/>
       <c r="D162" s="3" t="s">
         <v>378</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="F162" s="38"/>
+      <c r="F162" s="36"/>
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
     </row>
-    <row r="163" spans="1:8">
-      <c r="A163" s="36"/>
-      <c r="B163" s="36"/>
-      <c r="C163" s="39"/>
+    <row r="163" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A163" s="39"/>
+      <c r="B163" s="39"/>
+      <c r="C163" s="38"/>
       <c r="D163" s="3" t="s">
         <v>415</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="F163" s="38"/>
+      <c r="F163" s="36"/>
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
     </row>
-    <row r="164" spans="1:8">
-      <c r="A164" s="36"/>
-      <c r="B164" s="36"/>
+    <row r="164" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A164" s="39"/>
+      <c r="B164" s="39"/>
       <c r="C164" s="1" t="s">
         <v>417</v>
       </c>
@@ -6793,15 +6790,15 @@
       <c r="E164" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="F164" s="38">
+      <c r="F164" s="36">
         <v>160</v>
       </c>
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
     </row>
-    <row r="165" spans="1:8" ht="30">
-      <c r="A165" s="36"/>
-      <c r="B165" s="36"/>
+    <row r="165" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A165" s="39"/>
+      <c r="B165" s="39"/>
       <c r="C165" s="1"/>
       <c r="D165" s="3" t="s">
         <v>420</v>
@@ -6809,13 +6806,13 @@
       <c r="E165" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="F165" s="38"/>
+      <c r="F165" s="36"/>
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
     </row>
-    <row r="166" spans="1:8" ht="60">
-      <c r="A166" s="36"/>
-      <c r="B166" s="36"/>
+    <row r="166" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A166" s="39"/>
+      <c r="B166" s="39"/>
       <c r="C166" s="16" t="s">
         <v>422</v>
       </c>
@@ -6831,9 +6828,9 @@
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
     </row>
-    <row r="167" spans="1:8" ht="75">
-      <c r="A167" s="36"/>
-      <c r="B167" s="36"/>
+    <row r="167" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+      <c r="A167" s="39"/>
+      <c r="B167" s="39"/>
       <c r="C167" s="16" t="s">
         <v>425</v>
       </c>
@@ -6849,9 +6846,9 @@
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
     </row>
-    <row r="168" spans="1:8">
-      <c r="A168" s="36"/>
-      <c r="B168" s="36"/>
+    <row r="168" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A168" s="39"/>
+      <c r="B168" s="39"/>
       <c r="C168" s="1" t="s">
         <v>428</v>
       </c>
@@ -6867,9 +6864,9 @@
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
     </row>
-    <row r="169" spans="1:8" ht="30">
-      <c r="A169" s="36"/>
-      <c r="B169" s="36"/>
+    <row r="169" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A169" s="39"/>
+      <c r="B169" s="39"/>
       <c r="C169" s="1" t="s">
         <v>431</v>
       </c>
@@ -6885,9 +6882,9 @@
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
     </row>
-    <row r="170" spans="1:8" ht="30">
-      <c r="A170" s="36"/>
-      <c r="B170" s="36"/>
+    <row r="170" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A170" s="39"/>
+      <c r="B170" s="39"/>
       <c r="C170" s="1" t="s">
         <v>434</v>
       </c>
@@ -6903,9 +6900,9 @@
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
     </row>
-    <row r="171" spans="1:8">
-      <c r="A171" s="36"/>
-      <c r="B171" s="36"/>
+    <row r="171" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A171" s="39"/>
+      <c r="B171" s="39"/>
       <c r="C171" s="1" t="s">
         <v>437</v>
       </c>
@@ -6921,9 +6918,9 @@
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
     </row>
-    <row r="172" spans="1:8">
-      <c r="A172" s="36"/>
-      <c r="B172" s="36"/>
+    <row r="172" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A172" s="39"/>
+      <c r="B172" s="39"/>
       <c r="C172" s="1" t="s">
         <v>440</v>
       </c>
@@ -6939,9 +6936,9 @@
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
     </row>
-    <row r="173" spans="1:8" ht="30">
-      <c r="A173" s="36"/>
-      <c r="B173" s="36"/>
+    <row r="173" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A173" s="39"/>
+      <c r="B173" s="39"/>
       <c r="C173" s="1" t="s">
         <v>443</v>
       </c>
@@ -6957,9 +6954,9 @@
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
     </row>
-    <row r="174" spans="1:8">
-      <c r="A174" s="36"/>
-      <c r="B174" s="36"/>
+    <row r="174" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A174" s="39"/>
+      <c r="B174" s="39"/>
       <c r="C174" s="1" t="s">
         <v>446</v>
       </c>
@@ -6975,9 +6972,9 @@
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
     </row>
-    <row r="175" spans="1:8">
-      <c r="A175" s="36"/>
-      <c r="B175" s="36"/>
+    <row r="175" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A175" s="39"/>
+      <c r="B175" s="39"/>
       <c r="C175" s="1" t="s">
         <v>449</v>
       </c>
@@ -6993,7 +6990,7 @@
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
     </row>
-    <row r="176" spans="1:8" ht="3.75" customHeight="1">
+    <row r="176" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -7003,11 +7000,11 @@
       <c r="G176" s="5"/>
       <c r="H176" s="5"/>
     </row>
-    <row r="177" spans="1:8">
-      <c r="A177" s="36" t="s">
+    <row r="177" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A177" s="39" t="s">
         <v>452</v>
       </c>
-      <c r="B177" s="36" t="s">
+      <c r="B177" s="39" t="s">
         <v>453</v>
       </c>
       <c r="C177" s="1" t="s">
@@ -7025,9 +7022,9 @@
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
     </row>
-    <row r="178" spans="1:8">
-      <c r="A178" s="36"/>
-      <c r="B178" s="36"/>
+    <row r="178" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A178" s="39"/>
+      <c r="B178" s="39"/>
       <c r="C178" s="1" t="s">
         <v>457</v>
       </c>
@@ -7043,9 +7040,9 @@
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
     </row>
-    <row r="179" spans="1:8">
-      <c r="A179" s="36"/>
-      <c r="B179" s="36"/>
+    <row r="179" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A179" s="39"/>
+      <c r="B179" s="39"/>
       <c r="C179" s="9" t="s">
         <v>459</v>
       </c>
@@ -7059,7 +7056,7 @@
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
     </row>
-    <row r="180" spans="1:8" ht="4.5" customHeight="1">
+    <row r="180" spans="1:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="6"/>
       <c r="B180" s="6"/>
       <c r="C180" s="5"/>
@@ -7069,14 +7066,14 @@
       <c r="G180" s="5"/>
       <c r="H180" s="5"/>
     </row>
-    <row r="181" spans="1:8">
-      <c r="A181" s="36" t="s">
+    <row r="181" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A181" s="39" t="s">
         <v>461</v>
       </c>
-      <c r="B181" s="36" t="s">
+      <c r="B181" s="39" t="s">
         <v>462</v>
       </c>
-      <c r="C181" s="39" t="s">
+      <c r="C181" s="38" t="s">
         <v>463</v>
       </c>
       <c r="D181" s="3" t="s">
@@ -7085,30 +7082,30 @@
       <c r="E181" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="F181" s="38">
+      <c r="F181" s="36">
         <v>89</v>
       </c>
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
     </row>
-    <row r="182" spans="1:8">
-      <c r="A182" s="36"/>
-      <c r="B182" s="36"/>
-      <c r="C182" s="39"/>
+    <row r="182" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A182" s="39"/>
+      <c r="B182" s="39"/>
+      <c r="C182" s="38"/>
       <c r="D182" s="3" t="s">
         <v>466</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="F182" s="38"/>
+      <c r="F182" s="36"/>
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
     </row>
-    <row r="183" spans="1:8">
-      <c r="A183" s="36"/>
-      <c r="B183" s="36"/>
-      <c r="C183" s="39" t="s">
+    <row r="183" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A183" s="39"/>
+      <c r="B183" s="39"/>
+      <c r="C183" s="38" t="s">
         <v>468</v>
       </c>
       <c r="D183" s="25" t="s">
@@ -7117,29 +7114,29 @@
       <c r="E183" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="F183" s="38">
+      <c r="F183" s="36">
         <v>440</v>
       </c>
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
     </row>
-    <row r="184" spans="1:8">
-      <c r="A184" s="36"/>
-      <c r="B184" s="36"/>
-      <c r="C184" s="39"/>
+    <row r="184" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A184" s="39"/>
+      <c r="B184" s="39"/>
+      <c r="C184" s="38"/>
       <c r="D184" s="25" t="s">
         <v>469</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="F184" s="38"/>
+      <c r="F184" s="36"/>
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
     </row>
-    <row r="185" spans="1:8">
-      <c r="A185" s="36"/>
-      <c r="B185" s="36"/>
+    <row r="185" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A185" s="39"/>
+      <c r="B185" s="39"/>
       <c r="C185" s="1" t="s">
         <v>471</v>
       </c>
@@ -7155,9 +7152,9 @@
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
     </row>
-    <row r="186" spans="1:8" ht="75">
-      <c r="A186" s="36"/>
-      <c r="B186" s="36"/>
+    <row r="186" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A186" s="39"/>
+      <c r="B186" s="39"/>
       <c r="C186" s="9" t="s">
         <v>472</v>
       </c>
@@ -7173,9 +7170,9 @@
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
     </row>
-    <row r="187" spans="1:8">
-      <c r="A187" s="36"/>
-      <c r="B187" s="36"/>
+    <row r="187" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A187" s="39"/>
+      <c r="B187" s="39"/>
       <c r="C187" s="1" t="s">
         <v>475</v>
       </c>
@@ -7191,9 +7188,9 @@
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
     </row>
-    <row r="188" spans="1:8">
-      <c r="A188" s="36"/>
-      <c r="B188" s="36"/>
+    <row r="188" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A188" s="39"/>
+      <c r="B188" s="39"/>
       <c r="C188" s="1" t="s">
         <v>478</v>
       </c>
@@ -7209,9 +7206,9 @@
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
     </row>
-    <row r="189" spans="1:8">
-      <c r="A189" s="36"/>
-      <c r="B189" s="36"/>
+    <row r="189" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A189" s="39"/>
+      <c r="B189" s="39"/>
       <c r="C189" s="1" t="s">
         <v>481</v>
       </c>
@@ -7227,10 +7224,10 @@
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
     </row>
-    <row r="190" spans="1:8">
-      <c r="A190" s="36"/>
-      <c r="B190" s="36"/>
-      <c r="C190" s="39" t="s">
+    <row r="190" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A190" s="39"/>
+      <c r="B190" s="39"/>
+      <c r="C190" s="38" t="s">
         <v>484</v>
       </c>
       <c r="D190" s="25" t="s">
@@ -7239,30 +7236,30 @@
       <c r="E190" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="F190" s="38">
+      <c r="F190" s="36">
         <v>4</v>
       </c>
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
     </row>
-    <row r="191" spans="1:8" ht="30">
-      <c r="A191" s="36"/>
-      <c r="B191" s="36"/>
-      <c r="C191" s="39"/>
+    <row r="191" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A191" s="39"/>
+      <c r="B191" s="39"/>
+      <c r="C191" s="38"/>
       <c r="D191" s="25" t="s">
         <v>487</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="F191" s="38"/>
+      <c r="F191" s="36"/>
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
     </row>
-    <row r="192" spans="1:8" ht="30">
-      <c r="A192" s="36"/>
-      <c r="B192" s="36"/>
-      <c r="C192" s="39" t="s">
+    <row r="192" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A192" s="39"/>
+      <c r="B192" s="39"/>
+      <c r="C192" s="38" t="s">
         <v>489</v>
       </c>
       <c r="D192" s="3" t="s">
@@ -7271,29 +7268,29 @@
       <c r="E192" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="F192" s="41">
+      <c r="F192" s="37">
         <v>8</v>
       </c>
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
     </row>
-    <row r="193" spans="1:8">
-      <c r="A193" s="36"/>
-      <c r="B193" s="36"/>
-      <c r="C193" s="39"/>
+    <row r="193" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A193" s="39"/>
+      <c r="B193" s="39"/>
+      <c r="C193" s="38"/>
       <c r="D193" s="3" t="s">
         <v>492</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="F193" s="41"/>
+      <c r="F193" s="37"/>
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
     </row>
-    <row r="194" spans="1:8" ht="30">
-      <c r="A194" s="36"/>
-      <c r="B194" s="36"/>
+    <row r="194" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A194" s="39"/>
+      <c r="B194" s="39"/>
       <c r="C194" s="16"/>
       <c r="D194" s="3" t="s">
         <v>494</v>
@@ -7301,13 +7298,13 @@
       <c r="E194" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="F194" s="41"/>
+      <c r="F194" s="37"/>
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
     </row>
-    <row r="195" spans="1:8" ht="60">
-      <c r="A195" s="36"/>
-      <c r="B195" s="36"/>
+    <row r="195" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A195" s="39"/>
+      <c r="B195" s="39"/>
       <c r="C195" s="9" t="s">
         <v>496</v>
       </c>
@@ -7323,9 +7320,9 @@
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
     </row>
-    <row r="196" spans="1:8">
-      <c r="A196" s="36"/>
-      <c r="B196" s="36"/>
+    <row r="196" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A196" s="39"/>
+      <c r="B196" s="39"/>
       <c r="C196" s="9" t="s">
         <v>499</v>
       </c>
@@ -7339,10 +7336,10 @@
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
     </row>
-    <row r="197" spans="1:8">
-      <c r="A197" s="36"/>
-      <c r="B197" s="36"/>
-      <c r="C197" s="39" t="s">
+    <row r="197" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A197" s="39"/>
+      <c r="B197" s="39"/>
+      <c r="C197" s="38" t="s">
         <v>500</v>
       </c>
       <c r="D197" s="25" t="s">
@@ -7351,7 +7348,7 @@
       <c r="E197" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="F197" s="38">
+      <c r="F197" s="36">
         <v>1878000</v>
       </c>
       <c r="G197" s="17" t="s">
@@ -7359,24 +7356,24 @@
       </c>
       <c r="H197" s="17"/>
     </row>
-    <row r="198" spans="1:8" ht="60">
-      <c r="A198" s="36"/>
-      <c r="B198" s="36"/>
-      <c r="C198" s="39"/>
+    <row r="198" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A198" s="39"/>
+      <c r="B198" s="39"/>
+      <c r="C198" s="38"/>
       <c r="D198" s="25" t="s">
         <v>503</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="F198" s="38"/>
+      <c r="F198" s="36"/>
       <c r="G198" s="17"/>
       <c r="H198" s="17"/>
     </row>
-    <row r="199" spans="1:8" ht="30">
-      <c r="A199" s="36"/>
-      <c r="B199" s="36"/>
-      <c r="C199" s="39" t="s">
+    <row r="199" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A199" s="39"/>
+      <c r="B199" s="39"/>
+      <c r="C199" s="38" t="s">
         <v>505</v>
       </c>
       <c r="D199" s="25" t="s">
@@ -7385,44 +7382,44 @@
       <c r="E199" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="F199" s="38">
+      <c r="F199" s="36">
         <v>500</v>
       </c>
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
     </row>
-    <row r="200" spans="1:8" ht="30">
-      <c r="A200" s="36"/>
-      <c r="B200" s="36"/>
-      <c r="C200" s="39"/>
+    <row r="200" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A200" s="39"/>
+      <c r="B200" s="39"/>
+      <c r="C200" s="38"/>
       <c r="D200" s="25" t="s">
         <v>508</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="F200" s="38"/>
+      <c r="F200" s="36"/>
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
     </row>
-    <row r="201" spans="1:8" ht="30">
-      <c r="A201" s="36"/>
-      <c r="B201" s="36"/>
-      <c r="C201" s="39"/>
+    <row r="201" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A201" s="39"/>
+      <c r="B201" s="39"/>
+      <c r="C201" s="38"/>
       <c r="D201" s="25" t="s">
         <v>510</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="F201" s="38"/>
+      <c r="F201" s="36"/>
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
     </row>
-    <row r="202" spans="1:8">
-      <c r="A202" s="36"/>
-      <c r="B202" s="36"/>
-      <c r="C202" s="39" t="s">
+    <row r="202" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A202" s="39"/>
+      <c r="B202" s="39"/>
+      <c r="C202" s="38" t="s">
         <v>512</v>
       </c>
       <c r="D202" s="25" t="s">
@@ -7431,7 +7428,7 @@
       <c r="E202" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="F202" s="38">
+      <c r="F202" s="36">
         <v>2100000</v>
       </c>
       <c r="G202" s="17" t="s">
@@ -7439,23 +7436,23 @@
       </c>
       <c r="H202" s="17"/>
     </row>
-    <row r="203" spans="1:8">
-      <c r="A203" s="36"/>
-      <c r="B203" s="36"/>
-      <c r="C203" s="39"/>
+    <row r="203" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A203" s="39"/>
+      <c r="B203" s="39"/>
+      <c r="C203" s="38"/>
       <c r="D203" s="25" t="s">
         <v>515</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="F203" s="38"/>
+      <c r="F203" s="36"/>
       <c r="G203" s="17"/>
       <c r="H203" s="17"/>
     </row>
-    <row r="204" spans="1:8">
-      <c r="A204" s="36"/>
-      <c r="B204" s="36"/>
+    <row r="204" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A204" s="39"/>
+      <c r="B204" s="39"/>
       <c r="C204" s="1" t="s">
         <v>517</v>
       </c>
@@ -7473,10 +7470,10 @@
       </c>
       <c r="H204" s="17"/>
     </row>
-    <row r="205" spans="1:8" ht="30">
-      <c r="A205" s="36"/>
-      <c r="B205" s="36"/>
-      <c r="C205" s="39" t="s">
+    <row r="205" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A205" s="39"/>
+      <c r="B205" s="39"/>
+      <c r="C205" s="38" t="s">
         <v>519</v>
       </c>
       <c r="D205" s="3" t="s">
@@ -7485,43 +7482,43 @@
       <c r="E205" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="F205" s="41">
+      <c r="F205" s="37">
         <v>190</v>
       </c>
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
     </row>
-    <row r="206" spans="1:8" ht="30">
-      <c r="A206" s="36"/>
-      <c r="B206" s="36"/>
-      <c r="C206" s="39"/>
+    <row r="206" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A206" s="39"/>
+      <c r="B206" s="39"/>
+      <c r="C206" s="38"/>
       <c r="D206" s="3" t="s">
         <v>522</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="F206" s="41"/>
+      <c r="F206" s="37"/>
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
     </row>
-    <row r="207" spans="1:8" ht="30">
-      <c r="A207" s="36"/>
-      <c r="B207" s="36"/>
-      <c r="C207" s="39"/>
+    <row r="207" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A207" s="39"/>
+      <c r="B207" s="39"/>
+      <c r="C207" s="38"/>
       <c r="D207" s="3" t="s">
         <v>524</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="F207" s="41"/>
+      <c r="F207" s="37"/>
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
     </row>
-    <row r="208" spans="1:8" ht="30">
-      <c r="A208" s="36"/>
-      <c r="B208" s="36"/>
+    <row r="208" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A208" s="39"/>
+      <c r="B208" s="39"/>
       <c r="C208" s="1" t="s">
         <v>526</v>
       </c>
@@ -7537,10 +7534,10 @@
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
     </row>
-    <row r="209" spans="1:8" ht="30">
-      <c r="A209" s="36"/>
-      <c r="B209" s="36"/>
-      <c r="C209" s="39" t="s">
+    <row r="209" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A209" s="39"/>
+      <c r="B209" s="39"/>
+      <c r="C209" s="38" t="s">
         <v>529</v>
       </c>
       <c r="D209" s="25" t="s">
@@ -7549,30 +7546,30 @@
       <c r="E209" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="F209" s="41">
+      <c r="F209" s="37">
         <v>608</v>
       </c>
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
     </row>
-    <row r="210" spans="1:8" ht="45">
-      <c r="A210" s="36"/>
-      <c r="B210" s="36"/>
-      <c r="C210" s="39"/>
+    <row r="210" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A210" s="39"/>
+      <c r="B210" s="39"/>
+      <c r="C210" s="38"/>
       <c r="D210" s="25" t="s">
         <v>532</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="F210" s="41"/>
+      <c r="F210" s="37"/>
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
     </row>
-    <row r="211" spans="1:8" ht="30">
-      <c r="A211" s="36"/>
-      <c r="B211" s="36"/>
-      <c r="C211" s="39" t="s">
+    <row r="211" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A211" s="39"/>
+      <c r="B211" s="39"/>
+      <c r="C211" s="38" t="s">
         <v>534</v>
       </c>
       <c r="D211" s="25" t="s">
@@ -7581,58 +7578,58 @@
       <c r="E211" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="F211" s="41">
+      <c r="F211" s="37">
         <v>4800</v>
       </c>
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
     </row>
-    <row r="212" spans="1:8" ht="30">
-      <c r="A212" s="36"/>
-      <c r="B212" s="36"/>
-      <c r="C212" s="39"/>
+    <row r="212" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A212" s="39"/>
+      <c r="B212" s="39"/>
+      <c r="C212" s="38"/>
       <c r="D212" s="25" t="s">
         <v>537</v>
       </c>
       <c r="E212" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="F212" s="41"/>
+      <c r="F212" s="37"/>
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
     </row>
-    <row r="213" spans="1:8" ht="30">
-      <c r="A213" s="36"/>
-      <c r="B213" s="36"/>
-      <c r="C213" s="39"/>
+    <row r="213" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A213" s="39"/>
+      <c r="B213" s="39"/>
+      <c r="C213" s="38"/>
       <c r="D213" s="25" t="s">
         <v>539</v>
       </c>
       <c r="E213" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="F213" s="41"/>
+      <c r="F213" s="37"/>
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
     </row>
-    <row r="214" spans="1:8" ht="30">
-      <c r="A214" s="36"/>
-      <c r="B214" s="36"/>
-      <c r="C214" s="39"/>
+    <row r="214" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A214" s="39"/>
+      <c r="B214" s="39"/>
+      <c r="C214" s="38"/>
       <c r="D214" s="25" t="s">
         <v>541</v>
       </c>
       <c r="E214" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="F214" s="41"/>
+      <c r="F214" s="37"/>
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
     </row>
-    <row r="215" spans="1:8">
-      <c r="A215" s="36"/>
-      <c r="B215" s="36"/>
-      <c r="C215" s="39" t="s">
+    <row r="215" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A215" s="39"/>
+      <c r="B215" s="39"/>
+      <c r="C215" s="38" t="s">
         <v>543</v>
       </c>
       <c r="D215" s="25" t="s">
@@ -7641,44 +7638,44 @@
       <c r="E215" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="F215" s="41">
+      <c r="F215" s="37">
         <v>5</v>
       </c>
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
     </row>
-    <row r="216" spans="1:8">
-      <c r="A216" s="36"/>
-      <c r="B216" s="36"/>
-      <c r="C216" s="39"/>
+    <row r="216" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A216" s="39"/>
+      <c r="B216" s="39"/>
+      <c r="C216" s="38"/>
       <c r="D216" s="25" t="s">
         <v>546</v>
       </c>
       <c r="E216" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="F216" s="41"/>
+      <c r="F216" s="37"/>
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
     </row>
-    <row r="217" spans="1:8">
-      <c r="A217" s="36"/>
-      <c r="B217" s="36"/>
-      <c r="C217" s="39"/>
+    <row r="217" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A217" s="39"/>
+      <c r="B217" s="39"/>
+      <c r="C217" s="38"/>
       <c r="D217" s="25" t="s">
         <v>548</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="F217" s="41"/>
+      <c r="F217" s="37"/>
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
     </row>
-    <row r="218" spans="1:8">
-      <c r="A218" s="36"/>
-      <c r="B218" s="36"/>
-      <c r="C218" s="39" t="s">
+    <row r="218" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A218" s="39"/>
+      <c r="B218" s="39"/>
+      <c r="C218" s="38" t="s">
         <v>550</v>
       </c>
       <c r="D218" s="25" t="s">
@@ -7687,29 +7684,29 @@
       <c r="E218" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="F218" s="41">
+      <c r="F218" s="37">
         <v>50</v>
       </c>
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
     </row>
-    <row r="219" spans="1:8">
-      <c r="A219" s="36"/>
-      <c r="B219" s="36"/>
-      <c r="C219" s="39"/>
+    <row r="219" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A219" s="39"/>
+      <c r="B219" s="39"/>
+      <c r="C219" s="38"/>
       <c r="D219" s="25" t="s">
         <v>553</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="F219" s="41"/>
+      <c r="F219" s="37"/>
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
     </row>
-    <row r="220" spans="1:8" ht="30">
-      <c r="A220" s="36"/>
-      <c r="B220" s="36"/>
+    <row r="220" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A220" s="39"/>
+      <c r="B220" s="39"/>
       <c r="C220" s="1" t="s">
         <v>555</v>
       </c>
@@ -7725,9 +7722,9 @@
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
     </row>
-    <row r="221" spans="1:8" ht="30">
-      <c r="A221" s="36"/>
-      <c r="B221" s="36"/>
+    <row r="221" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A221" s="39"/>
+      <c r="B221" s="39"/>
       <c r="C221" s="1" t="s">
         <v>558</v>
       </c>
@@ -7743,10 +7740,10 @@
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
     </row>
-    <row r="222" spans="1:8">
-      <c r="A222" s="36"/>
-      <c r="B222" s="36"/>
-      <c r="C222" s="39" t="s">
+    <row r="222" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A222" s="39"/>
+      <c r="B222" s="39"/>
+      <c r="C222" s="38" t="s">
         <v>561</v>
       </c>
       <c r="D222" s="25" t="s">
@@ -7755,27 +7752,27 @@
       <c r="E222" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="F222" s="38">
+      <c r="F222" s="36">
         <v>0</v>
       </c>
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
     </row>
-    <row r="223" spans="1:8">
-      <c r="A223" s="36"/>
-      <c r="B223" s="36"/>
-      <c r="C223" s="39"/>
+    <row r="223" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A223" s="39"/>
+      <c r="B223" s="39"/>
+      <c r="C223" s="38"/>
       <c r="D223" s="25" t="s">
         <v>132</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="F223" s="38"/>
+      <c r="F223" s="36"/>
       <c r="G223" s="1"/>
       <c r="H223" s="1"/>
     </row>
-    <row r="224" spans="1:8" ht="4.5" customHeight="1">
+    <row r="224" spans="1:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="6"/>
       <c r="B224" s="6"/>
       <c r="C224" s="5"/>
@@ -7785,11 +7782,11 @@
       <c r="G224" s="5"/>
       <c r="H224" s="5"/>
     </row>
-    <row r="225" spans="1:8" ht="30">
-      <c r="A225" s="36" t="s">
+    <row r="225" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A225" s="39" t="s">
         <v>565</v>
       </c>
-      <c r="B225" s="36" t="s">
+      <c r="B225" s="39" t="s">
         <v>566</v>
       </c>
       <c r="C225" s="16" t="s">
@@ -7807,9 +7804,9 @@
       <c r="G225" s="1"/>
       <c r="H225" s="1"/>
     </row>
-    <row r="226" spans="1:8" ht="30">
-      <c r="A226" s="36"/>
-      <c r="B226" s="36"/>
+    <row r="226" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A226" s="39"/>
+      <c r="B226" s="39"/>
       <c r="C226" s="1" t="s">
         <v>570</v>
       </c>
@@ -7825,9 +7822,9 @@
       <c r="G226" s="1"/>
       <c r="H226" s="1"/>
     </row>
-    <row r="227" spans="1:8" ht="30">
-      <c r="A227" s="36"/>
-      <c r="B227" s="36"/>
+    <row r="227" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A227" s="39"/>
+      <c r="B227" s="39"/>
       <c r="C227" s="1" t="s">
         <v>573</v>
       </c>
@@ -7843,9 +7840,9 @@
       <c r="G227" s="1"/>
       <c r="H227" s="1"/>
     </row>
-    <row r="228" spans="1:8">
-      <c r="A228" s="36"/>
-      <c r="B228" s="36"/>
+    <row r="228" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A228" s="39"/>
+      <c r="B228" s="39"/>
       <c r="C228" s="1" t="s">
         <v>576</v>
       </c>
@@ -7861,9 +7858,9 @@
       <c r="G228" s="1"/>
       <c r="H228" s="1"/>
     </row>
-    <row r="229" spans="1:8" ht="30">
-      <c r="A229" s="36"/>
-      <c r="B229" s="36"/>
+    <row r="229" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A229" s="39"/>
+      <c r="B229" s="39"/>
       <c r="C229" s="16" t="s">
         <v>579</v>
       </c>
@@ -7879,9 +7876,9 @@
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
     </row>
-    <row r="230" spans="1:8">
-      <c r="A230" s="36"/>
-      <c r="B230" s="36"/>
+    <row r="230" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A230" s="39"/>
+      <c r="B230" s="39"/>
       <c r="C230" s="1" t="s">
         <v>582</v>
       </c>
@@ -7897,9 +7894,9 @@
       <c r="G230" s="1"/>
       <c r="H230" s="1"/>
     </row>
-    <row r="231" spans="1:8" ht="30">
-      <c r="A231" s="36"/>
-      <c r="B231" s="36"/>
+    <row r="231" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A231" s="39"/>
+      <c r="B231" s="39"/>
       <c r="C231" s="1" t="s">
         <v>585</v>
       </c>
@@ -7915,9 +7912,9 @@
       <c r="G231" s="1"/>
       <c r="H231" s="1"/>
     </row>
-    <row r="232" spans="1:8" ht="30">
-      <c r="A232" s="36"/>
-      <c r="B232" s="36"/>
+    <row r="232" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A232" s="39"/>
+      <c r="B232" s="39"/>
       <c r="C232" s="1" t="s">
         <v>588</v>
       </c>
@@ -7933,9 +7930,9 @@
       <c r="G232" s="1"/>
       <c r="H232" s="1"/>
     </row>
-    <row r="233" spans="1:8">
-      <c r="A233" s="36"/>
-      <c r="B233" s="36"/>
+    <row r="233" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A233" s="39"/>
+      <c r="B233" s="39"/>
       <c r="C233" s="16" t="s">
         <v>591</v>
       </c>
@@ -7951,9 +7948,9 @@
       <c r="G233" s="1"/>
       <c r="H233" s="1"/>
     </row>
-    <row r="234" spans="1:8">
-      <c r="A234" s="36"/>
-      <c r="B234" s="36"/>
+    <row r="234" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A234" s="39"/>
+      <c r="B234" s="39"/>
       <c r="C234" s="16" t="s">
         <v>594</v>
       </c>
@@ -7969,9 +7966,9 @@
       <c r="G234" s="1"/>
       <c r="H234" s="1"/>
     </row>
-    <row r="235" spans="1:8">
-      <c r="A235" s="36"/>
-      <c r="B235" s="36"/>
+    <row r="235" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A235" s="39"/>
+      <c r="B235" s="39"/>
       <c r="C235" s="1" t="s">
         <v>597</v>
       </c>
@@ -7987,9 +7984,9 @@
       <c r="G235" s="1"/>
       <c r="H235" s="1"/>
     </row>
-    <row r="236" spans="1:8">
-      <c r="A236" s="36"/>
-      <c r="B236" s="36"/>
+    <row r="236" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A236" s="39"/>
+      <c r="B236" s="39"/>
       <c r="C236" s="1" t="s">
         <v>600</v>
       </c>
@@ -8005,9 +8002,9 @@
       <c r="G236" s="1"/>
       <c r="H236" s="1"/>
     </row>
-    <row r="237" spans="1:8">
-      <c r="A237" s="36"/>
-      <c r="B237" s="36"/>
+    <row r="237" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A237" s="39"/>
+      <c r="B237" s="39"/>
       <c r="C237" s="1" t="s">
         <v>603</v>
       </c>
@@ -8023,9 +8020,9 @@
       <c r="G237" s="1"/>
       <c r="H237" s="1"/>
     </row>
-    <row r="238" spans="1:8" ht="30">
-      <c r="A238" s="36"/>
-      <c r="B238" s="36"/>
+    <row r="238" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A238" s="39"/>
+      <c r="B238" s="39"/>
       <c r="C238" s="1" t="s">
         <v>606</v>
       </c>
@@ -8041,9 +8038,9 @@
       <c r="G238" s="1"/>
       <c r="H238" s="1"/>
     </row>
-    <row r="239" spans="1:8" ht="45">
-      <c r="A239" s="36"/>
-      <c r="B239" s="36"/>
+    <row r="239" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A239" s="39"/>
+      <c r="B239" s="39"/>
       <c r="C239" s="16" t="s">
         <v>609</v>
       </c>
@@ -8059,7 +8056,7 @@
       <c r="G239" s="1"/>
       <c r="H239" s="1"/>
     </row>
-    <row r="240" spans="1:8" ht="4.5" customHeight="1">
+    <row r="240" spans="1:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="6"/>
       <c r="B240" s="6"/>
       <c r="C240" s="5"/>
@@ -8069,11 +8066,11 @@
       <c r="G240" s="5"/>
       <c r="H240" s="5"/>
     </row>
-    <row r="241" spans="1:8" ht="30">
-      <c r="A241" s="36" t="s">
+    <row r="241" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A241" s="39" t="s">
         <v>612</v>
       </c>
-      <c r="B241" s="36" t="s">
+      <c r="B241" s="39" t="s">
         <v>613</v>
       </c>
       <c r="C241" s="16" t="s">
@@ -8091,9 +8088,9 @@
       <c r="G241" s="1"/>
       <c r="H241" s="1"/>
     </row>
-    <row r="242" spans="1:8">
-      <c r="A242" s="36"/>
-      <c r="B242" s="36"/>
+    <row r="242" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A242" s="39"/>
+      <c r="B242" s="39"/>
       <c r="C242" s="1" t="s">
         <v>617</v>
       </c>
@@ -8109,9 +8106,9 @@
       <c r="G242" s="1"/>
       <c r="H242" s="1"/>
     </row>
-    <row r="243" spans="1:8">
-      <c r="A243" s="36"/>
-      <c r="B243" s="36"/>
+    <row r="243" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A243" s="39"/>
+      <c r="B243" s="39"/>
       <c r="C243" s="1" t="s">
         <v>620</v>
       </c>
@@ -8127,9 +8124,9 @@
       <c r="G243" s="1"/>
       <c r="H243" s="1"/>
     </row>
-    <row r="244" spans="1:8">
-      <c r="A244" s="36"/>
-      <c r="B244" s="36"/>
+    <row r="244" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A244" s="39"/>
+      <c r="B244" s="39"/>
       <c r="C244" s="1" t="s">
         <v>623</v>
       </c>
@@ -8145,9 +8142,9 @@
       <c r="G244" s="1"/>
       <c r="H244" s="1"/>
     </row>
-    <row r="245" spans="1:8">
-      <c r="A245" s="36"/>
-      <c r="B245" s="36"/>
+    <row r="245" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A245" s="39"/>
+      <c r="B245" s="39"/>
       <c r="C245" s="1" t="s">
         <v>625</v>
       </c>
@@ -8163,9 +8160,9 @@
       <c r="G245" s="1"/>
       <c r="H245" s="1"/>
     </row>
-    <row r="246" spans="1:8">
-      <c r="A246" s="36"/>
-      <c r="B246" s="36"/>
+    <row r="246" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A246" s="39"/>
+      <c r="B246" s="39"/>
       <c r="C246" s="1" t="s">
         <v>628</v>
       </c>
@@ -8181,9 +8178,9 @@
       <c r="G246" s="1"/>
       <c r="H246" s="1"/>
     </row>
-    <row r="247" spans="1:8">
-      <c r="A247" s="36"/>
-      <c r="B247" s="36"/>
+    <row r="247" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A247" s="39"/>
+      <c r="B247" s="39"/>
       <c r="C247" s="1" t="s">
         <v>631</v>
       </c>
@@ -8199,9 +8196,9 @@
       <c r="G247" s="1"/>
       <c r="H247" s="1"/>
     </row>
-    <row r="248" spans="1:8">
-      <c r="A248" s="36"/>
-      <c r="B248" s="36"/>
+    <row r="248" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A248" s="39"/>
+      <c r="B248" s="39"/>
       <c r="C248" s="1" t="s">
         <v>633</v>
       </c>
@@ -8217,9 +8214,9 @@
       <c r="G248" s="1"/>
       <c r="H248" s="1"/>
     </row>
-    <row r="249" spans="1:8">
-      <c r="A249" s="36"/>
-      <c r="B249" s="36"/>
+    <row r="249" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A249" s="39"/>
+      <c r="B249" s="39"/>
       <c r="C249" s="1" t="s">
         <v>636</v>
       </c>
@@ -8235,7 +8232,7 @@
       <c r="G249" s="1"/>
       <c r="H249" s="1"/>
     </row>
-    <row r="250" spans="1:8" ht="4.5" customHeight="1">
+    <row r="250" spans="1:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="6"/>
       <c r="B250" s="6"/>
       <c r="C250" s="5"/>
@@ -8245,11 +8242,11 @@
       <c r="G250" s="5"/>
       <c r="H250" s="5"/>
     </row>
-    <row r="251" spans="1:8" ht="30">
-      <c r="A251" s="36" t="s">
+    <row r="251" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A251" s="39" t="s">
         <v>638</v>
       </c>
-      <c r="B251" s="36" t="s">
+      <c r="B251" s="39" t="s">
         <v>639</v>
       </c>
       <c r="C251" s="16" t="s">
@@ -8267,9 +8264,9 @@
       <c r="G251" s="1"/>
       <c r="H251" s="1"/>
     </row>
-    <row r="252" spans="1:8">
-      <c r="A252" s="36"/>
-      <c r="B252" s="36"/>
+    <row r="252" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A252" s="39"/>
+      <c r="B252" s="39"/>
       <c r="C252" s="1" t="s">
         <v>643</v>
       </c>
@@ -8285,7 +8282,7 @@
       <c r="G252" s="1"/>
       <c r="H252" s="1"/>
     </row>
-    <row r="253" spans="1:8" ht="4.5" customHeight="1">
+    <row r="253" spans="1:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="6"/>
       <c r="B253" s="6"/>
       <c r="C253" s="5"/>
@@ -8295,11 +8292,11 @@
       <c r="G253" s="5"/>
       <c r="H253" s="5"/>
     </row>
-    <row r="254" spans="1:8">
-      <c r="A254" s="36" t="s">
+    <row r="254" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A254" s="39" t="s">
         <v>646</v>
       </c>
-      <c r="B254" s="36" t="s">
+      <c r="B254" s="39" t="s">
         <v>647</v>
       </c>
       <c r="C254" s="1" t="s">
@@ -8317,9 +8314,9 @@
       <c r="G254" s="1"/>
       <c r="H254" s="1"/>
     </row>
-    <row r="255" spans="1:8">
-      <c r="A255" s="36"/>
-      <c r="B255" s="36"/>
+    <row r="255" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A255" s="39"/>
+      <c r="B255" s="39"/>
       <c r="C255" s="1" t="s">
         <v>651</v>
       </c>
@@ -8335,9 +8332,9 @@
       <c r="G255" s="1"/>
       <c r="H255" s="1"/>
     </row>
-    <row r="256" spans="1:8" ht="30">
-      <c r="A256" s="36"/>
-      <c r="B256" s="36"/>
+    <row r="256" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A256" s="39"/>
+      <c r="B256" s="39"/>
       <c r="C256" s="9" t="s">
         <v>654</v>
       </c>
@@ -8351,9 +8348,9 @@
       <c r="G256" s="1"/>
       <c r="H256" s="1"/>
     </row>
-    <row r="257" spans="1:8">
-      <c r="A257" s="36"/>
-      <c r="B257" s="36"/>
+    <row r="257" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A257" s="39"/>
+      <c r="B257" s="39"/>
       <c r="C257" s="1" t="s">
         <v>655</v>
       </c>
@@ -8369,9 +8366,9 @@
       <c r="G257" s="1"/>
       <c r="H257" s="1"/>
     </row>
-    <row r="258" spans="1:8">
-      <c r="A258" s="36"/>
-      <c r="B258" s="36"/>
+    <row r="258" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A258" s="39"/>
+      <c r="B258" s="39"/>
       <c r="C258" s="1" t="s">
         <v>658</v>
       </c>
@@ -8387,10 +8384,10 @@
       <c r="G258" s="1"/>
       <c r="H258" s="1"/>
     </row>
-    <row r="259" spans="1:8">
-      <c r="A259" s="36"/>
-      <c r="B259" s="36"/>
-      <c r="C259" s="39" t="s">
+    <row r="259" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A259" s="39"/>
+      <c r="B259" s="39"/>
+      <c r="C259" s="38" t="s">
         <v>661</v>
       </c>
       <c r="D259" s="25" t="s">
@@ -8399,29 +8396,29 @@
       <c r="E259" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="F259" s="38">
+      <c r="F259" s="36">
         <v>2600</v>
       </c>
       <c r="G259" s="1"/>
       <c r="H259" s="1"/>
     </row>
-    <row r="260" spans="1:8">
-      <c r="A260" s="36"/>
-      <c r="B260" s="36"/>
-      <c r="C260" s="39"/>
+    <row r="260" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A260" s="39"/>
+      <c r="B260" s="39"/>
+      <c r="C260" s="38"/>
       <c r="D260" s="25" t="s">
         <v>664</v>
       </c>
       <c r="E260" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="F260" s="38"/>
+      <c r="F260" s="36"/>
       <c r="G260" s="1"/>
       <c r="H260" s="1"/>
     </row>
-    <row r="261" spans="1:8">
-      <c r="A261" s="36"/>
-      <c r="B261" s="36"/>
+    <row r="261" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A261" s="39"/>
+      <c r="B261" s="39"/>
       <c r="C261" s="1" t="s">
         <v>666</v>
       </c>
@@ -8437,9 +8434,9 @@
       <c r="G261" s="1"/>
       <c r="H261" s="1"/>
     </row>
-    <row r="262" spans="1:8">
-      <c r="A262" s="36"/>
-      <c r="B262" s="36"/>
+    <row r="262" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A262" s="39"/>
+      <c r="B262" s="39"/>
       <c r="C262" s="1" t="s">
         <v>669</v>
       </c>
@@ -8455,9 +8452,9 @@
       <c r="G262" s="1"/>
       <c r="H262" s="1"/>
     </row>
-    <row r="263" spans="1:8">
-      <c r="A263" s="36"/>
-      <c r="B263" s="36"/>
+    <row r="263" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A263" s="39"/>
+      <c r="B263" s="39"/>
       <c r="C263" s="1" t="s">
         <v>672</v>
       </c>
@@ -8473,9 +8470,9 @@
       <c r="G263" s="1"/>
       <c r="H263" s="1"/>
     </row>
-    <row r="264" spans="1:8" ht="30">
-      <c r="A264" s="36"/>
-      <c r="B264" s="36"/>
+    <row r="264" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A264" s="39"/>
+      <c r="B264" s="39"/>
       <c r="C264" s="1" t="s">
         <v>675</v>
       </c>
@@ -8491,9 +8488,9 @@
       <c r="G264" s="1"/>
       <c r="H264" s="1"/>
     </row>
-    <row r="265" spans="1:8">
-      <c r="A265" s="36"/>
-      <c r="B265" s="36"/>
+    <row r="265" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A265" s="39"/>
+      <c r="B265" s="39"/>
       <c r="C265" s="1" t="s">
         <v>678</v>
       </c>
@@ -8509,9 +8506,9 @@
       <c r="G265" s="1"/>
       <c r="H265" s="1"/>
     </row>
-    <row r="266" spans="1:8">
-      <c r="A266" s="36"/>
-      <c r="B266" s="36"/>
+    <row r="266" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A266" s="39"/>
+      <c r="B266" s="39"/>
       <c r="C266" s="1" t="s">
         <v>681</v>
       </c>
@@ -8527,9 +8524,9 @@
       <c r="G266" s="1"/>
       <c r="H266" s="1"/>
     </row>
-    <row r="267" spans="1:8" ht="30">
-      <c r="A267" s="36"/>
-      <c r="B267" s="36"/>
+    <row r="267" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A267" s="39"/>
+      <c r="B267" s="39"/>
       <c r="C267" s="9" t="s">
         <v>684</v>
       </c>
@@ -8543,9 +8540,9 @@
       <c r="G267" s="1"/>
       <c r="H267" s="1"/>
     </row>
-    <row r="268" spans="1:8">
-      <c r="A268" s="36"/>
-      <c r="B268" s="36"/>
+    <row r="268" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A268" s="39"/>
+      <c r="B268" s="39"/>
       <c r="C268" s="1" t="s">
         <v>685</v>
       </c>
@@ -8561,9 +8558,9 @@
       <c r="G268" s="1"/>
       <c r="H268" s="1"/>
     </row>
-    <row r="269" spans="1:8">
-      <c r="A269" s="36"/>
-      <c r="B269" s="36"/>
+    <row r="269" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A269" s="39"/>
+      <c r="B269" s="39"/>
       <c r="C269" s="1" t="s">
         <v>688</v>
       </c>
@@ -8579,9 +8576,9 @@
       <c r="G269" s="1"/>
       <c r="H269" s="1"/>
     </row>
-    <row r="270" spans="1:8">
-      <c r="A270" s="36"/>
-      <c r="B270" s="36"/>
+    <row r="270" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A270" s="39"/>
+      <c r="B270" s="39"/>
       <c r="C270" s="1" t="s">
         <v>691</v>
       </c>
@@ -8597,9 +8594,9 @@
       <c r="G270" s="1"/>
       <c r="H270" s="1"/>
     </row>
-    <row r="271" spans="1:8">
-      <c r="A271" s="36"/>
-      <c r="B271" s="36"/>
+    <row r="271" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A271" s="39"/>
+      <c r="B271" s="39"/>
       <c r="C271" s="1" t="s">
         <v>694</v>
       </c>
@@ -8615,9 +8612,9 @@
       <c r="G271" s="1"/>
       <c r="H271" s="1"/>
     </row>
-    <row r="272" spans="1:8">
-      <c r="A272" s="36"/>
-      <c r="B272" s="36"/>
+    <row r="272" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A272" s="39"/>
+      <c r="B272" s="39"/>
       <c r="C272" s="1" t="s">
         <v>697</v>
       </c>
@@ -8633,9 +8630,9 @@
       <c r="G272" s="1"/>
       <c r="H272" s="1"/>
     </row>
-    <row r="273" spans="1:8">
-      <c r="A273" s="36"/>
-      <c r="B273" s="36"/>
+    <row r="273" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A273" s="39"/>
+      <c r="B273" s="39"/>
       <c r="C273" s="1" t="s">
         <v>700</v>
       </c>
@@ -8651,9 +8648,9 @@
       <c r="G273" s="1"/>
       <c r="H273" s="1"/>
     </row>
-    <row r="274" spans="1:8">
-      <c r="A274" s="36"/>
-      <c r="B274" s="36"/>
+    <row r="274" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A274" s="39"/>
+      <c r="B274" s="39"/>
       <c r="C274" s="1" t="s">
         <v>703</v>
       </c>
@@ -8669,10 +8666,10 @@
       <c r="G274" s="1"/>
       <c r="H274" s="1"/>
     </row>
-    <row r="275" spans="1:8">
-      <c r="A275" s="36"/>
-      <c r="B275" s="36"/>
-      <c r="C275" s="39" t="s">
+    <row r="275" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A275" s="39"/>
+      <c r="B275" s="39"/>
+      <c r="C275" s="38" t="s">
         <v>706</v>
       </c>
       <c r="D275" s="3" t="s">
@@ -8681,29 +8678,29 @@
       <c r="E275" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="F275" s="38">
+      <c r="F275" s="36">
         <v>1090</v>
       </c>
       <c r="G275" s="1"/>
       <c r="H275" s="1"/>
     </row>
-    <row r="276" spans="1:8">
-      <c r="A276" s="36"/>
-      <c r="B276" s="36"/>
-      <c r="C276" s="39"/>
+    <row r="276" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A276" s="39"/>
+      <c r="B276" s="39"/>
+      <c r="C276" s="38"/>
       <c r="D276" s="3" t="s">
         <v>709</v>
       </c>
       <c r="E276" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="F276" s="38"/>
+      <c r="F276" s="36"/>
       <c r="G276" s="1"/>
       <c r="H276" s="1"/>
     </row>
-    <row r="277" spans="1:8">
-      <c r="A277" s="36"/>
-      <c r="B277" s="36"/>
+    <row r="277" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A277" s="39"/>
+      <c r="B277" s="39"/>
       <c r="C277" s="1" t="s">
         <v>711</v>
       </c>
@@ -8719,9 +8716,9 @@
       <c r="G277" s="1"/>
       <c r="H277" s="1"/>
     </row>
-    <row r="278" spans="1:8">
-      <c r="A278" s="36"/>
-      <c r="B278" s="36"/>
+    <row r="278" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A278" s="39"/>
+      <c r="B278" s="39"/>
       <c r="C278" s="1" t="s">
         <v>714</v>
       </c>
@@ -8737,9 +8734,9 @@
       <c r="G278" s="1"/>
       <c r="H278" s="1"/>
     </row>
-    <row r="279" spans="1:8" ht="30">
-      <c r="A279" s="36"/>
-      <c r="B279" s="36"/>
+    <row r="279" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A279" s="39"/>
+      <c r="B279" s="39"/>
       <c r="C279" s="9" t="s">
         <v>716</v>
       </c>
@@ -8753,9 +8750,9 @@
       <c r="G279" s="1"/>
       <c r="H279" s="1"/>
     </row>
-    <row r="280" spans="1:8">
-      <c r="A280" s="36"/>
-      <c r="B280" s="36"/>
+    <row r="280" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A280" s="39"/>
+      <c r="B280" s="39"/>
       <c r="C280" s="1" t="s">
         <v>717</v>
       </c>
@@ -8771,9 +8768,9 @@
       <c r="G280" s="1"/>
       <c r="H280" s="1"/>
     </row>
-    <row r="281" spans="1:8">
-      <c r="A281" s="36"/>
-      <c r="B281" s="36"/>
+    <row r="281" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A281" s="39"/>
+      <c r="B281" s="39"/>
       <c r="C281" s="1" t="s">
         <v>718</v>
       </c>
@@ -8789,10 +8786,10 @@
       <c r="G281" s="1"/>
       <c r="H281" s="1"/>
     </row>
-    <row r="282" spans="1:8">
-      <c r="A282" s="36"/>
-      <c r="B282" s="36"/>
-      <c r="C282" s="39" t="s">
+    <row r="282" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A282" s="39"/>
+      <c r="B282" s="39"/>
+      <c r="C282" s="38" t="s">
         <v>721</v>
       </c>
       <c r="D282" s="25" t="s">
@@ -8801,30 +8798,30 @@
       <c r="E282" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="F282" s="38">
+      <c r="F282" s="36">
         <v>6080</v>
       </c>
       <c r="G282" s="1"/>
       <c r="H282" s="1"/>
     </row>
-    <row r="283" spans="1:8">
-      <c r="A283" s="36"/>
-      <c r="B283" s="36"/>
-      <c r="C283" s="39"/>
+    <row r="283" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A283" s="39"/>
+      <c r="B283" s="39"/>
+      <c r="C283" s="38"/>
       <c r="D283" s="25" t="s">
         <v>724</v>
       </c>
       <c r="E283" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="F283" s="38"/>
+      <c r="F283" s="36"/>
       <c r="G283" s="1"/>
       <c r="H283" s="1"/>
     </row>
-    <row r="284" spans="1:8">
-      <c r="A284" s="36"/>
-      <c r="B284" s="36"/>
-      <c r="C284" s="39" t="s">
+    <row r="284" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A284" s="39"/>
+      <c r="B284" s="39"/>
+      <c r="C284" s="38" t="s">
         <v>726</v>
       </c>
       <c r="D284" s="25" t="s">
@@ -8833,29 +8830,29 @@
       <c r="E284" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="F284" s="38">
+      <c r="F284" s="36">
         <v>4770</v>
       </c>
       <c r="G284" s="1"/>
       <c r="H284" s="1"/>
     </row>
-    <row r="285" spans="1:8">
-      <c r="A285" s="36"/>
-      <c r="B285" s="36"/>
-      <c r="C285" s="39"/>
+    <row r="285" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A285" s="39"/>
+      <c r="B285" s="39"/>
+      <c r="C285" s="38"/>
       <c r="D285" s="25" t="s">
         <v>729</v>
       </c>
       <c r="E285" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="F285" s="38"/>
+      <c r="F285" s="36"/>
       <c r="G285" s="1"/>
       <c r="H285" s="1"/>
     </row>
-    <row r="286" spans="1:8">
-      <c r="A286" s="36"/>
-      <c r="B286" s="36"/>
+    <row r="286" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A286" s="39"/>
+      <c r="B286" s="39"/>
       <c r="C286" s="1" t="s">
         <v>731</v>
       </c>
@@ -8871,9 +8868,9 @@
       <c r="G286" s="1"/>
       <c r="H286" s="1"/>
     </row>
-    <row r="287" spans="1:8">
-      <c r="A287" s="36"/>
-      <c r="B287" s="36"/>
+    <row r="287" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A287" s="39"/>
+      <c r="B287" s="39"/>
       <c r="C287" s="1" t="s">
         <v>734</v>
       </c>
@@ -8889,9 +8886,9 @@
       <c r="G287" s="1"/>
       <c r="H287" s="1"/>
     </row>
-    <row r="288" spans="1:8">
-      <c r="A288" s="36"/>
-      <c r="B288" s="36"/>
+    <row r="288" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A288" s="39"/>
+      <c r="B288" s="39"/>
       <c r="C288" s="1" t="s">
         <v>737</v>
       </c>
@@ -8907,9 +8904,9 @@
       <c r="G288" s="1"/>
       <c r="H288" s="1"/>
     </row>
-    <row r="289" spans="1:8" ht="30">
-      <c r="A289" s="36"/>
-      <c r="B289" s="36"/>
+    <row r="289" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A289" s="39"/>
+      <c r="B289" s="39"/>
       <c r="C289" s="9" t="s">
         <v>740</v>
       </c>
@@ -8923,9 +8920,9 @@
       <c r="G289" s="1"/>
       <c r="H289" s="1"/>
     </row>
-    <row r="290" spans="1:8">
-      <c r="A290" s="36"/>
-      <c r="B290" s="36"/>
+    <row r="290" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A290" s="39"/>
+      <c r="B290" s="39"/>
       <c r="C290" s="1" t="s">
         <v>741</v>
       </c>
@@ -8941,9 +8938,9 @@
       <c r="G290" s="1"/>
       <c r="H290" s="1"/>
     </row>
-    <row r="291" spans="1:8">
-      <c r="A291" s="36"/>
-      <c r="B291" s="36"/>
+    <row r="291" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A291" s="39"/>
+      <c r="B291" s="39"/>
       <c r="C291" s="1" t="s">
         <v>744</v>
       </c>
@@ -8959,9 +8956,9 @@
       <c r="G291" s="1"/>
       <c r="H291" s="1"/>
     </row>
-    <row r="292" spans="1:8" ht="30">
-      <c r="A292" s="36"/>
-      <c r="B292" s="36"/>
+    <row r="292" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A292" s="39"/>
+      <c r="B292" s="39"/>
       <c r="C292" s="9" t="s">
         <v>746</v>
       </c>
@@ -8975,9 +8972,9 @@
       <c r="G292" s="1"/>
       <c r="H292" s="1"/>
     </row>
-    <row r="293" spans="1:8">
-      <c r="A293" s="36"/>
-      <c r="B293" s="36"/>
+    <row r="293" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A293" s="39"/>
+      <c r="B293" s="39"/>
       <c r="C293" s="1" t="s">
         <v>747</v>
       </c>
@@ -8993,9 +8990,9 @@
       <c r="G293" s="1"/>
       <c r="H293" s="1"/>
     </row>
-    <row r="294" spans="1:8">
-      <c r="A294" s="36"/>
-      <c r="B294" s="36"/>
+    <row r="294" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A294" s="39"/>
+      <c r="B294" s="39"/>
       <c r="C294" s="1" t="s">
         <v>750</v>
       </c>
@@ -9011,9 +9008,9 @@
       <c r="G294" s="1"/>
       <c r="H294" s="1"/>
     </row>
-    <row r="295" spans="1:8" ht="30">
-      <c r="A295" s="36"/>
-      <c r="B295" s="36"/>
+    <row r="295" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A295" s="39"/>
+      <c r="B295" s="39"/>
       <c r="C295" s="9" t="s">
         <v>753</v>
       </c>
@@ -9027,9 +9024,9 @@
       <c r="G295" s="1"/>
       <c r="H295" s="1"/>
     </row>
-    <row r="296" spans="1:8" ht="45.75" customHeight="1">
-      <c r="A296" s="36"/>
-      <c r="B296" s="36"/>
+    <row r="296" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A296" s="39"/>
+      <c r="B296" s="39"/>
       <c r="C296" s="8" t="s">
         <v>754</v>
       </c>
@@ -9045,9 +9042,9 @@
       <c r="G296" s="1"/>
       <c r="H296" s="1"/>
     </row>
-    <row r="297" spans="1:8" ht="30">
-      <c r="A297" s="36"/>
-      <c r="B297" s="36"/>
+    <row r="297" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A297" s="39"/>
+      <c r="B297" s="39"/>
       <c r="C297" s="9" t="s">
         <v>757</v>
       </c>
@@ -9061,9 +9058,9 @@
       <c r="G297" s="1"/>
       <c r="H297" s="1"/>
     </row>
-    <row r="298" spans="1:8" ht="30">
-      <c r="A298" s="36"/>
-      <c r="B298" s="36"/>
+    <row r="298" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A298" s="39"/>
+      <c r="B298" s="39"/>
       <c r="C298" s="9" t="s">
         <v>758</v>
       </c>
@@ -9077,9 +9074,9 @@
       <c r="G298" s="1"/>
       <c r="H298" s="1"/>
     </row>
-    <row r="299" spans="1:8">
-      <c r="A299" s="36"/>
-      <c r="B299" s="36"/>
+    <row r="299" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A299" s="39"/>
+      <c r="B299" s="39"/>
       <c r="C299" s="1" t="s">
         <v>759</v>
       </c>
@@ -9095,9 +9092,9 @@
       <c r="G299" s="1"/>
       <c r="H299" s="1"/>
     </row>
-    <row r="300" spans="1:8">
-      <c r="A300" s="36"/>
-      <c r="B300" s="36"/>
+    <row r="300" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A300" s="39"/>
+      <c r="B300" s="39"/>
       <c r="C300" s="1" t="s">
         <v>762</v>
       </c>
@@ -9113,9 +9110,9 @@
       <c r="G300" s="1"/>
       <c r="H300" s="1"/>
     </row>
-    <row r="301" spans="1:8">
-      <c r="A301" s="36"/>
-      <c r="B301" s="36"/>
+    <row r="301" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A301" s="39"/>
+      <c r="B301" s="39"/>
       <c r="C301" s="1" t="s">
         <v>765</v>
       </c>
@@ -9131,9 +9128,9 @@
       <c r="G301" s="1"/>
       <c r="H301" s="1"/>
     </row>
-    <row r="302" spans="1:8">
-      <c r="A302" s="36"/>
-      <c r="B302" s="36"/>
+    <row r="302" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A302" s="39"/>
+      <c r="B302" s="39"/>
       <c r="C302" s="1" t="s">
         <v>768</v>
       </c>
@@ -9149,9 +9146,9 @@
       <c r="G302" s="1"/>
       <c r="H302" s="1"/>
     </row>
-    <row r="303" spans="1:8">
-      <c r="A303" s="36"/>
-      <c r="B303" s="36"/>
+    <row r="303" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A303" s="39"/>
+      <c r="B303" s="39"/>
       <c r="C303" s="1" t="s">
         <v>771</v>
       </c>
@@ -9167,9 +9164,9 @@
       <c r="G303" s="1"/>
       <c r="H303" s="1"/>
     </row>
-    <row r="304" spans="1:8">
-      <c r="A304" s="36"/>
-      <c r="B304" s="36"/>
+    <row r="304" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A304" s="39"/>
+      <c r="B304" s="39"/>
       <c r="C304" s="1" t="s">
         <v>774</v>
       </c>
@@ -9185,9 +9182,9 @@
       <c r="G304" s="1"/>
       <c r="H304" s="1"/>
     </row>
-    <row r="305" spans="1:8">
-      <c r="A305" s="36"/>
-      <c r="B305" s="36"/>
+    <row r="305" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A305" s="39"/>
+      <c r="B305" s="39"/>
       <c r="C305" s="1" t="s">
         <v>777</v>
       </c>
@@ -9203,9 +9200,9 @@
       <c r="G305" s="1"/>
       <c r="H305" s="1"/>
     </row>
-    <row r="306" spans="1:8">
-      <c r="A306" s="36"/>
-      <c r="B306" s="36"/>
+    <row r="306" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A306" s="39"/>
+      <c r="B306" s="39"/>
       <c r="C306" s="1" t="s">
         <v>780</v>
       </c>
@@ -9221,9 +9218,9 @@
       <c r="G306" s="1"/>
       <c r="H306" s="1"/>
     </row>
-    <row r="307" spans="1:8">
-      <c r="A307" s="36"/>
-      <c r="B307" s="36"/>
+    <row r="307" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A307" s="39"/>
+      <c r="B307" s="39"/>
       <c r="C307" s="1" t="s">
         <v>783</v>
       </c>
@@ -9239,9 +9236,9 @@
       <c r="G307" s="1"/>
       <c r="H307" s="1"/>
     </row>
-    <row r="308" spans="1:8">
-      <c r="A308" s="36"/>
-      <c r="B308" s="36"/>
+    <row r="308" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A308" s="39"/>
+      <c r="B308" s="39"/>
       <c r="C308" s="1" t="s">
         <v>786</v>
       </c>
@@ -9257,9 +9254,9 @@
       <c r="G308" s="1"/>
       <c r="H308" s="1"/>
     </row>
-    <row r="309" spans="1:8">
-      <c r="A309" s="36"/>
-      <c r="B309" s="36"/>
+    <row r="309" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A309" s="39"/>
+      <c r="B309" s="39"/>
       <c r="C309" s="1" t="s">
         <v>789</v>
       </c>
@@ -9275,9 +9272,9 @@
       <c r="G309" s="1"/>
       <c r="H309" s="1"/>
     </row>
-    <row r="310" spans="1:8">
-      <c r="A310" s="36"/>
-      <c r="B310" s="36"/>
+    <row r="310" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A310" s="39"/>
+      <c r="B310" s="39"/>
       <c r="C310" s="1" t="s">
         <v>792</v>
       </c>
@@ -9293,9 +9290,9 @@
       <c r="G310" s="1"/>
       <c r="H310" s="1"/>
     </row>
-    <row r="311" spans="1:8">
-      <c r="A311" s="36"/>
-      <c r="B311" s="36"/>
+    <row r="311" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A311" s="39"/>
+      <c r="B311" s="39"/>
       <c r="C311" s="1" t="s">
         <v>795</v>
       </c>
@@ -9311,9 +9308,9 @@
       <c r="G311" s="1"/>
       <c r="H311" s="1"/>
     </row>
-    <row r="312" spans="1:8">
-      <c r="A312" s="36"/>
-      <c r="B312" s="36"/>
+    <row r="312" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A312" s="39"/>
+      <c r="B312" s="39"/>
       <c r="C312" s="1" t="s">
         <v>798</v>
       </c>
@@ -9329,9 +9326,9 @@
       <c r="G312" s="1"/>
       <c r="H312" s="1"/>
     </row>
-    <row r="313" spans="1:8">
-      <c r="A313" s="36"/>
-      <c r="B313" s="36"/>
+    <row r="313" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A313" s="39"/>
+      <c r="B313" s="39"/>
       <c r="C313" s="1" t="s">
         <v>801</v>
       </c>
@@ -9347,9 +9344,9 @@
       <c r="G313" s="1"/>
       <c r="H313" s="1"/>
     </row>
-    <row r="314" spans="1:8">
-      <c r="A314" s="36"/>
-      <c r="B314" s="36"/>
+    <row r="314" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A314" s="39"/>
+      <c r="B314" s="39"/>
       <c r="C314" s="1" t="s">
         <v>804</v>
       </c>
@@ -9365,9 +9362,9 @@
       <c r="G314" s="1"/>
       <c r="H314" s="1"/>
     </row>
-    <row r="315" spans="1:8">
-      <c r="A315" s="36"/>
-      <c r="B315" s="36"/>
+    <row r="315" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A315" s="39"/>
+      <c r="B315" s="39"/>
       <c r="C315" s="1" t="s">
         <v>807</v>
       </c>
@@ -9383,9 +9380,9 @@
       <c r="G315" s="1"/>
       <c r="H315" s="1"/>
     </row>
-    <row r="316" spans="1:8">
-      <c r="A316" s="36"/>
-      <c r="B316" s="36"/>
+    <row r="316" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A316" s="39"/>
+      <c r="B316" s="39"/>
       <c r="C316" s="1" t="s">
         <v>810</v>
       </c>
@@ -9401,9 +9398,9 @@
       <c r="G316" s="1"/>
       <c r="H316" s="1"/>
     </row>
-    <row r="317" spans="1:8" ht="30">
-      <c r="A317" s="36"/>
-      <c r="B317" s="36"/>
+    <row r="317" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A317" s="39"/>
+      <c r="B317" s="39"/>
       <c r="C317" s="9" t="s">
         <v>813</v>
       </c>
@@ -9416,10 +9413,10 @@
       <c r="G317" s="1"/>
       <c r="H317" s="1"/>
     </row>
-    <row r="318" spans="1:8">
-      <c r="A318" s="36"/>
-      <c r="B318" s="36"/>
-      <c r="C318" s="39" t="s">
+    <row r="318" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A318" s="39"/>
+      <c r="B318" s="39"/>
+      <c r="C318" s="38" t="s">
         <v>814</v>
       </c>
       <c r="D318" s="25" t="s">
@@ -9428,29 +9425,29 @@
       <c r="E318" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="F318" s="38">
+      <c r="F318" s="36">
         <v>2290</v>
       </c>
       <c r="G318" s="1"/>
       <c r="H318" s="1"/>
     </row>
-    <row r="319" spans="1:8">
-      <c r="A319" s="36"/>
-      <c r="B319" s="36"/>
-      <c r="C319" s="39"/>
+    <row r="319" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A319" s="39"/>
+      <c r="B319" s="39"/>
+      <c r="C319" s="38"/>
       <c r="D319" s="25" t="s">
         <v>816</v>
       </c>
       <c r="E319" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="F319" s="38"/>
+      <c r="F319" s="36"/>
       <c r="G319" s="1"/>
       <c r="H319" s="1"/>
     </row>
-    <row r="320" spans="1:8">
-      <c r="A320" s="36"/>
-      <c r="B320" s="36"/>
+    <row r="320" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A320" s="39"/>
+      <c r="B320" s="39"/>
       <c r="C320" s="1" t="s">
         <v>818</v>
       </c>
@@ -9466,9 +9463,9 @@
       <c r="G320" s="1"/>
       <c r="H320" s="1"/>
     </row>
-    <row r="321" spans="1:8">
-      <c r="A321" s="36"/>
-      <c r="B321" s="36"/>
+    <row r="321" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A321" s="39"/>
+      <c r="B321" s="39"/>
       <c r="C321" s="1" t="s">
         <v>821</v>
       </c>
@@ -9484,9 +9481,9 @@
       <c r="G321" s="1"/>
       <c r="H321" s="1"/>
     </row>
-    <row r="322" spans="1:8">
-      <c r="A322" s="36"/>
-      <c r="B322" s="36"/>
+    <row r="322" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A322" s="39"/>
+      <c r="B322" s="39"/>
       <c r="C322" s="1" t="s">
         <v>824</v>
       </c>
@@ -9502,9 +9499,9 @@
       <c r="G322" s="1"/>
       <c r="H322" s="1"/>
     </row>
-    <row r="323" spans="1:8">
-      <c r="A323" s="36"/>
-      <c r="B323" s="36"/>
+    <row r="323" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A323" s="39"/>
+      <c r="B323" s="39"/>
       <c r="C323" s="1" t="s">
         <v>827</v>
       </c>
@@ -9520,9 +9517,9 @@
       <c r="G323" s="1"/>
       <c r="H323" s="1"/>
     </row>
-    <row r="324" spans="1:8">
-      <c r="A324" s="36"/>
-      <c r="B324" s="36"/>
+    <row r="324" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A324" s="39"/>
+      <c r="B324" s="39"/>
       <c r="C324" s="1" t="s">
         <v>830</v>
       </c>
@@ -9538,10 +9535,10 @@
       <c r="G324" s="1"/>
       <c r="H324" s="1"/>
     </row>
-    <row r="325" spans="1:8">
-      <c r="A325" s="36"/>
-      <c r="B325" s="36"/>
-      <c r="C325" s="39" t="s">
+    <row r="325" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A325" s="39"/>
+      <c r="B325" s="39"/>
+      <c r="C325" s="38" t="s">
         <v>833</v>
       </c>
       <c r="D325" s="3" t="s">
@@ -9550,29 +9547,29 @@
       <c r="E325" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="F325" s="38">
+      <c r="F325" s="36">
         <v>3700</v>
       </c>
       <c r="G325" s="1"/>
       <c r="H325" s="1"/>
     </row>
-    <row r="326" spans="1:8">
-      <c r="A326" s="36"/>
-      <c r="B326" s="36"/>
-      <c r="C326" s="39"/>
+    <row r="326" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A326" s="39"/>
+      <c r="B326" s="39"/>
+      <c r="C326" s="38"/>
       <c r="D326" s="3" t="s">
         <v>836</v>
       </c>
       <c r="E326" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="F326" s="38"/>
+      <c r="F326" s="36"/>
       <c r="G326" s="1"/>
       <c r="H326" s="1"/>
     </row>
-    <row r="327" spans="1:8">
-      <c r="A327" s="36"/>
-      <c r="B327" s="36"/>
+    <row r="327" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A327" s="39"/>
+      <c r="B327" s="39"/>
       <c r="C327" s="1" t="s">
         <v>838</v>
       </c>
@@ -9588,9 +9585,9 @@
       <c r="G327" s="1"/>
       <c r="H327" s="1"/>
     </row>
-    <row r="328" spans="1:8">
-      <c r="A328" s="36"/>
-      <c r="B328" s="36"/>
+    <row r="328" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A328" s="39"/>
+      <c r="B328" s="39"/>
       <c r="C328" s="1" t="s">
         <v>841</v>
       </c>
@@ -9606,10 +9603,10 @@
       <c r="G328" s="1"/>
       <c r="H328" s="1"/>
     </row>
-    <row r="329" spans="1:8">
-      <c r="A329" s="36"/>
-      <c r="B329" s="36"/>
-      <c r="C329" s="39" t="s">
+    <row r="329" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A329" s="39"/>
+      <c r="B329" s="39"/>
+      <c r="C329" s="38" t="s">
         <v>844</v>
       </c>
       <c r="D329" s="3" t="s">
@@ -9618,29 +9615,29 @@
       <c r="E329" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="F329" s="38">
+      <c r="F329" s="36">
         <v>5850</v>
       </c>
       <c r="G329" s="1"/>
       <c r="H329" s="1"/>
     </row>
-    <row r="330" spans="1:8">
-      <c r="A330" s="36"/>
-      <c r="B330" s="36"/>
-      <c r="C330" s="39"/>
+    <row r="330" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A330" s="39"/>
+      <c r="B330" s="39"/>
+      <c r="C330" s="38"/>
       <c r="D330" s="3" t="s">
         <v>724</v>
       </c>
       <c r="E330" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="F330" s="38"/>
+      <c r="F330" s="36"/>
       <c r="G330" s="1"/>
       <c r="H330" s="1"/>
     </row>
-    <row r="331" spans="1:8">
-      <c r="A331" s="36"/>
-      <c r="B331" s="36"/>
+    <row r="331" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A331" s="39"/>
+      <c r="B331" s="39"/>
       <c r="C331" s="1" t="s">
         <v>848</v>
       </c>
@@ -9656,9 +9653,9 @@
       <c r="G331" s="1"/>
       <c r="H331" s="1"/>
     </row>
-    <row r="332" spans="1:8">
-      <c r="A332" s="36"/>
-      <c r="B332" s="36"/>
+    <row r="332" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A332" s="39"/>
+      <c r="B332" s="39"/>
       <c r="C332" s="1" t="s">
         <v>851</v>
       </c>
@@ -9674,10 +9671,10 @@
       <c r="G332" s="1"/>
       <c r="H332" s="1"/>
     </row>
-    <row r="333" spans="1:8">
-      <c r="A333" s="36"/>
-      <c r="B333" s="36"/>
-      <c r="C333" s="39" t="s">
+    <row r="333" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A333" s="39"/>
+      <c r="B333" s="39"/>
+      <c r="C333" s="38" t="s">
         <v>854</v>
       </c>
       <c r="D333" s="25" t="s">
@@ -9686,43 +9683,43 @@
       <c r="E333" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="F333" s="38">
+      <c r="F333" s="36">
         <v>5300</v>
       </c>
       <c r="G333" s="1"/>
       <c r="H333" s="1"/>
     </row>
-    <row r="334" spans="1:8">
-      <c r="A334" s="36"/>
-      <c r="B334" s="36"/>
-      <c r="C334" s="39"/>
+    <row r="334" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A334" s="39"/>
+      <c r="B334" s="39"/>
+      <c r="C334" s="38"/>
       <c r="D334" s="25" t="s">
         <v>836</v>
       </c>
       <c r="E334" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="F334" s="38"/>
+      <c r="F334" s="36"/>
       <c r="G334" s="1"/>
       <c r="H334" s="1"/>
     </row>
-    <row r="335" spans="1:8">
-      <c r="A335" s="36"/>
-      <c r="B335" s="36"/>
-      <c r="C335" s="39"/>
+    <row r="335" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A335" s="39"/>
+      <c r="B335" s="39"/>
+      <c r="C335" s="38"/>
       <c r="D335" s="25" t="s">
         <v>729</v>
       </c>
       <c r="E335" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="F335" s="38"/>
+      <c r="F335" s="36"/>
       <c r="G335" s="1"/>
       <c r="H335" s="1"/>
     </row>
-    <row r="336" spans="1:8">
-      <c r="A336" s="36"/>
-      <c r="B336" s="36"/>
+    <row r="336" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A336" s="39"/>
+      <c r="B336" s="39"/>
       <c r="C336" s="1" t="s">
         <v>859</v>
       </c>
@@ -9738,9 +9735,9 @@
       <c r="G336" s="1"/>
       <c r="H336" s="1"/>
     </row>
-    <row r="337" spans="1:8">
-      <c r="A337" s="36"/>
-      <c r="B337" s="36"/>
+    <row r="337" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A337" s="39"/>
+      <c r="B337" s="39"/>
       <c r="C337" s="1" t="s">
         <v>862</v>
       </c>
@@ -9756,9 +9753,9 @@
       <c r="G337" s="1"/>
       <c r="H337" s="1"/>
     </row>
-    <row r="338" spans="1:8">
-      <c r="A338" s="36"/>
-      <c r="B338" s="36"/>
+    <row r="338" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A338" s="39"/>
+      <c r="B338" s="39"/>
       <c r="C338" s="1" t="s">
         <v>865</v>
       </c>
@@ -9774,9 +9771,9 @@
       <c r="G338" s="1"/>
       <c r="H338" s="1"/>
     </row>
-    <row r="339" spans="1:8">
-      <c r="A339" s="36"/>
-      <c r="B339" s="36"/>
+    <row r="339" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A339" s="39"/>
+      <c r="B339" s="39"/>
       <c r="C339" s="1" t="s">
         <v>868</v>
       </c>
@@ -9792,9 +9789,9 @@
       <c r="G339" s="1"/>
       <c r="H339" s="1"/>
     </row>
-    <row r="340" spans="1:8">
-      <c r="A340" s="36"/>
-      <c r="B340" s="36"/>
+    <row r="340" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A340" s="39"/>
+      <c r="B340" s="39"/>
       <c r="C340" s="1" t="s">
         <v>870</v>
       </c>
@@ -9810,9 +9807,9 @@
       <c r="G340" s="1"/>
       <c r="H340" s="1"/>
     </row>
-    <row r="341" spans="1:8">
-      <c r="A341" s="36"/>
-      <c r="B341" s="36"/>
+    <row r="341" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A341" s="39"/>
+      <c r="B341" s="39"/>
       <c r="C341" s="1" t="s">
         <v>873</v>
       </c>
@@ -9828,9 +9825,9 @@
       <c r="G341" s="1"/>
       <c r="H341" s="1"/>
     </row>
-    <row r="342" spans="1:8" ht="30">
-      <c r="A342" s="36"/>
-      <c r="B342" s="36"/>
+    <row r="342" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A342" s="39"/>
+      <c r="B342" s="39"/>
       <c r="C342" s="1" t="s">
         <v>876</v>
       </c>
@@ -9846,9 +9843,9 @@
       <c r="G342" s="1"/>
       <c r="H342" s="1"/>
     </row>
-    <row r="343" spans="1:8">
-      <c r="A343" s="36"/>
-      <c r="B343" s="36"/>
+    <row r="343" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A343" s="39"/>
+      <c r="B343" s="39"/>
       <c r="C343" s="1" t="s">
         <v>879</v>
       </c>
@@ -9864,9 +9861,9 @@
       <c r="G343" s="1"/>
       <c r="H343" s="1"/>
     </row>
-    <row r="344" spans="1:8">
-      <c r="A344" s="36"/>
-      <c r="B344" s="36"/>
+    <row r="344" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A344" s="39"/>
+      <c r="B344" s="39"/>
       <c r="C344" s="1" t="s">
         <v>882</v>
       </c>
@@ -9882,9 +9879,9 @@
       <c r="G344" s="1"/>
       <c r="H344" s="1"/>
     </row>
-    <row r="345" spans="1:8" ht="30">
-      <c r="A345" s="36"/>
-      <c r="B345" s="36"/>
+    <row r="345" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A345" s="39"/>
+      <c r="B345" s="39"/>
       <c r="C345" s="9" t="s">
         <v>885</v>
       </c>
@@ -9897,9 +9894,9 @@
       <c r="G345" s="1"/>
       <c r="H345" s="1"/>
     </row>
-    <row r="346" spans="1:8">
-      <c r="A346" s="36"/>
-      <c r="B346" s="36"/>
+    <row r="346" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A346" s="39"/>
+      <c r="B346" s="39"/>
       <c r="C346" s="1" t="s">
         <v>886</v>
       </c>
@@ -9915,9 +9912,9 @@
       <c r="G346" s="1"/>
       <c r="H346" s="1"/>
     </row>
-    <row r="347" spans="1:8">
-      <c r="A347" s="36"/>
-      <c r="B347" s="36"/>
+    <row r="347" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A347" s="39"/>
+      <c r="B347" s="39"/>
       <c r="C347" s="1" t="s">
         <v>889</v>
       </c>
@@ -9933,9 +9930,9 @@
       <c r="G347" s="1"/>
       <c r="H347" s="1"/>
     </row>
-    <row r="348" spans="1:8">
-      <c r="A348" s="36"/>
-      <c r="B348" s="36"/>
+    <row r="348" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A348" s="39"/>
+      <c r="B348" s="39"/>
       <c r="C348" s="1" t="s">
         <v>892</v>
       </c>
@@ -9951,9 +9948,9 @@
       <c r="G348" s="1"/>
       <c r="H348" s="1"/>
     </row>
-    <row r="349" spans="1:8">
-      <c r="A349" s="36"/>
-      <c r="B349" s="36"/>
+    <row r="349" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A349" s="39"/>
+      <c r="B349" s="39"/>
       <c r="C349" s="1" t="s">
         <v>895</v>
       </c>
@@ -9969,9 +9966,9 @@
       <c r="G349" s="1"/>
       <c r="H349" s="1"/>
     </row>
-    <row r="350" spans="1:8">
-      <c r="A350" s="36"/>
-      <c r="B350" s="36"/>
+    <row r="350" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A350" s="39"/>
+      <c r="B350" s="39"/>
       <c r="C350" s="1" t="s">
         <v>898</v>
       </c>
@@ -9987,9 +9984,9 @@
       <c r="G350" s="1"/>
       <c r="H350" s="1"/>
     </row>
-    <row r="351" spans="1:8" ht="30">
-      <c r="A351" s="36"/>
-      <c r="B351" s="36"/>
+    <row r="351" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A351" s="39"/>
+      <c r="B351" s="39"/>
       <c r="C351" s="9" t="s">
         <v>901</v>
       </c>
@@ -10002,9 +9999,9 @@
       <c r="G351" s="1"/>
       <c r="H351" s="1"/>
     </row>
-    <row r="352" spans="1:8" ht="30">
-      <c r="A352" s="36"/>
-      <c r="B352" s="36"/>
+    <row r="352" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A352" s="39"/>
+      <c r="B352" s="39"/>
       <c r="C352" s="9" t="s">
         <v>902</v>
       </c>
@@ -10017,9 +10014,9 @@
       <c r="G352" s="1"/>
       <c r="H352" s="1"/>
     </row>
-    <row r="353" spans="1:8">
-      <c r="A353" s="36"/>
-      <c r="B353" s="36"/>
+    <row r="353" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A353" s="39"/>
+      <c r="B353" s="39"/>
       <c r="C353" s="1" t="s">
         <v>903</v>
       </c>
@@ -10035,9 +10032,9 @@
       <c r="G353" s="1"/>
       <c r="H353" s="1"/>
     </row>
-    <row r="354" spans="1:8">
-      <c r="A354" s="36"/>
-      <c r="B354" s="36"/>
+    <row r="354" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A354" s="39"/>
+      <c r="B354" s="39"/>
       <c r="C354" s="1" t="s">
         <v>906</v>
       </c>
@@ -10053,9 +10050,9 @@
       <c r="G354" s="1"/>
       <c r="H354" s="1"/>
     </row>
-    <row r="355" spans="1:8">
-      <c r="A355" s="36"/>
-      <c r="B355" s="36"/>
+    <row r="355" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A355" s="39"/>
+      <c r="B355" s="39"/>
       <c r="C355" s="1" t="s">
         <v>909</v>
       </c>
@@ -10071,9 +10068,9 @@
       <c r="G355" s="1"/>
       <c r="H355" s="1"/>
     </row>
-    <row r="356" spans="1:8">
-      <c r="A356" s="36"/>
-      <c r="B356" s="36"/>
+    <row r="356" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A356" s="39"/>
+      <c r="B356" s="39"/>
       <c r="C356" s="1" t="s">
         <v>912</v>
       </c>
@@ -10089,9 +10086,9 @@
       <c r="G356" s="1"/>
       <c r="H356" s="1"/>
     </row>
-    <row r="357" spans="1:8">
-      <c r="A357" s="36"/>
-      <c r="B357" s="36"/>
+    <row r="357" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A357" s="39"/>
+      <c r="B357" s="39"/>
       <c r="C357" s="1" t="s">
         <v>915</v>
       </c>
@@ -10107,10 +10104,10 @@
       <c r="G357" s="1"/>
       <c r="H357" s="1"/>
     </row>
-    <row r="358" spans="1:8">
-      <c r="A358" s="36"/>
-      <c r="B358" s="36"/>
-      <c r="C358" s="39" t="s">
+    <row r="358" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A358" s="39"/>
+      <c r="B358" s="39"/>
+      <c r="C358" s="38" t="s">
         <v>918</v>
       </c>
       <c r="D358" s="25" t="s">
@@ -10119,29 +10116,29 @@
       <c r="E358" s="1" t="s">
         <v>920</v>
       </c>
-      <c r="F358" s="38">
+      <c r="F358" s="36">
         <v>8</v>
       </c>
       <c r="G358" s="1"/>
       <c r="H358" s="1"/>
     </row>
-    <row r="359" spans="1:8" ht="30">
-      <c r="A359" s="36"/>
-      <c r="B359" s="36"/>
-      <c r="C359" s="39"/>
+    <row r="359" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A359" s="39"/>
+      <c r="B359" s="39"/>
+      <c r="C359" s="38"/>
       <c r="D359" s="25" t="s">
         <v>921</v>
       </c>
       <c r="E359" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="F359" s="38"/>
+      <c r="F359" s="36"/>
       <c r="G359" s="1"/>
       <c r="H359" s="1"/>
     </row>
-    <row r="360" spans="1:8">
-      <c r="A360" s="36"/>
-      <c r="B360" s="36"/>
+    <row r="360" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A360" s="39"/>
+      <c r="B360" s="39"/>
       <c r="C360" s="1" t="s">
         <v>923</v>
       </c>
@@ -10157,10 +10154,10 @@
       <c r="G360" s="1"/>
       <c r="H360" s="1"/>
     </row>
-    <row r="361" spans="1:8">
-      <c r="A361" s="36"/>
-      <c r="B361" s="36"/>
-      <c r="C361" s="39" t="s">
+    <row r="361" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A361" s="39"/>
+      <c r="B361" s="39"/>
+      <c r="C361" s="38" t="s">
         <v>926</v>
       </c>
       <c r="D361" s="3" t="s">
@@ -10169,27 +10166,27 @@
       <c r="E361" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="F361" s="38">
+      <c r="F361" s="36">
         <v>1370</v>
       </c>
       <c r="G361" s="1"/>
       <c r="H361" s="1"/>
     </row>
-    <row r="362" spans="1:8">
-      <c r="A362" s="36"/>
-      <c r="B362" s="36"/>
-      <c r="C362" s="39"/>
+    <row r="362" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A362" s="39"/>
+      <c r="B362" s="39"/>
+      <c r="C362" s="38"/>
       <c r="D362" s="3" t="s">
         <v>927</v>
       </c>
       <c r="E362" s="1" t="s">
         <v>929</v>
       </c>
-      <c r="F362" s="38"/>
+      <c r="F362" s="36"/>
       <c r="G362" s="1"/>
       <c r="H362" s="1"/>
     </row>
-    <row r="363" spans="1:8" ht="4.5" customHeight="1">
+    <row r="363" spans="1:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="6"/>
       <c r="B363" s="6"/>
       <c r="C363" s="5"/>
@@ -10199,11 +10196,11 @@
       <c r="G363" s="5"/>
       <c r="H363" s="5"/>
     </row>
-    <row r="364" spans="1:8">
-      <c r="A364" s="36" t="s">
+    <row r="364" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A364" s="39" t="s">
         <v>930</v>
       </c>
-      <c r="B364" s="36" t="s">
+      <c r="B364" s="39" t="s">
         <v>931</v>
       </c>
       <c r="C364" s="9" t="s">
@@ -10219,9 +10216,9 @@
       <c r="G364" s="1"/>
       <c r="H364" s="1"/>
     </row>
-    <row r="365" spans="1:8">
-      <c r="A365" s="36"/>
-      <c r="B365" s="36"/>
+    <row r="365" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A365" s="39"/>
+      <c r="B365" s="39"/>
       <c r="C365" s="9" t="s">
         <v>934</v>
       </c>
@@ -10235,9 +10232,9 @@
       <c r="G365" s="1"/>
       <c r="H365" s="1"/>
     </row>
-    <row r="366" spans="1:8">
-      <c r="A366" s="36"/>
-      <c r="B366" s="36"/>
+    <row r="366" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A366" s="39"/>
+      <c r="B366" s="39"/>
       <c r="C366" s="9" t="s">
         <v>936</v>
       </c>
@@ -10250,7 +10247,7 @@
       <c r="G366" s="1"/>
       <c r="H366" s="1"/>
     </row>
-    <row r="367" spans="1:8" ht="4.5" customHeight="1">
+    <row r="367" spans="1:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="6"/>
       <c r="B367" s="6"/>
       <c r="C367" s="5"/>
@@ -10260,11 +10257,11 @@
       <c r="G367" s="5"/>
       <c r="H367" s="5"/>
     </row>
-    <row r="368" spans="1:8">
-      <c r="A368" s="36" t="s">
+    <row r="368" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A368" s="39" t="s">
         <v>938</v>
       </c>
-      <c r="B368" s="36" t="s">
+      <c r="B368" s="39" t="s">
         <v>939</v>
       </c>
       <c r="C368" s="1" t="s">
@@ -10282,9 +10279,9 @@
       <c r="G368" s="1"/>
       <c r="H368" s="1"/>
     </row>
-    <row r="369" spans="1:8">
-      <c r="A369" s="36"/>
-      <c r="B369" s="36"/>
+    <row r="369" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A369" s="39"/>
+      <c r="B369" s="39"/>
       <c r="C369" s="1" t="s">
         <v>943</v>
       </c>
@@ -10300,9 +10297,9 @@
       <c r="G369" s="1"/>
       <c r="H369" s="1"/>
     </row>
-    <row r="370" spans="1:8" ht="30">
-      <c r="A370" s="36"/>
-      <c r="B370" s="36"/>
+    <row r="370" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A370" s="39"/>
+      <c r="B370" s="39"/>
       <c r="C370" s="1" t="s">
         <v>946</v>
       </c>
@@ -10318,9 +10315,9 @@
       <c r="G370" s="1"/>
       <c r="H370" s="1"/>
     </row>
-    <row r="371" spans="1:8">
-      <c r="A371" s="36"/>
-      <c r="B371" s="36"/>
+    <row r="371" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A371" s="39"/>
+      <c r="B371" s="39"/>
       <c r="C371" s="1" t="s">
         <v>949</v>
       </c>
@@ -10336,9 +10333,9 @@
       <c r="G371" s="1"/>
       <c r="H371" s="1"/>
     </row>
-    <row r="372" spans="1:8" ht="30">
-      <c r="A372" s="36"/>
-      <c r="B372" s="36"/>
+    <row r="372" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A372" s="39"/>
+      <c r="B372" s="39"/>
       <c r="C372" s="9" t="s">
         <v>952</v>
       </c>
@@ -10352,9 +10349,9 @@
       <c r="G372" s="1"/>
       <c r="H372" s="1"/>
     </row>
-    <row r="373" spans="1:8" ht="75">
-      <c r="A373" s="36"/>
-      <c r="B373" s="36"/>
+    <row r="373" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A373" s="39"/>
+      <c r="B373" s="39"/>
       <c r="C373" s="9" t="s">
         <v>953</v>
       </c>
@@ -10370,9 +10367,9 @@
       <c r="G373" s="1"/>
       <c r="H373" s="1"/>
     </row>
-    <row r="374" spans="1:8" ht="30">
-      <c r="A374" s="36"/>
-      <c r="B374" s="36"/>
+    <row r="374" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A374" s="39"/>
+      <c r="B374" s="39"/>
       <c r="C374" s="9" t="s">
         <v>956</v>
       </c>
@@ -10386,9 +10383,9 @@
       <c r="G374" s="1"/>
       <c r="H374" s="1"/>
     </row>
-    <row r="375" spans="1:8" ht="30">
-      <c r="A375" s="36"/>
-      <c r="B375" s="36"/>
+    <row r="375" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A375" s="39"/>
+      <c r="B375" s="39"/>
       <c r="C375" s="9" t="s">
         <v>957</v>
       </c>
@@ -10401,9 +10398,9 @@
       <c r="G375" s="1"/>
       <c r="H375" s="1"/>
     </row>
-    <row r="376" spans="1:8" ht="30">
-      <c r="A376" s="36"/>
-      <c r="B376" s="36"/>
+    <row r="376" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A376" s="39"/>
+      <c r="B376" s="39"/>
       <c r="C376" s="1" t="s">
         <v>958</v>
       </c>
@@ -10419,9 +10416,9 @@
       <c r="G376" s="1"/>
       <c r="H376" s="1"/>
     </row>
-    <row r="377" spans="1:8">
-      <c r="A377" s="36"/>
-      <c r="B377" s="36"/>
+    <row r="377" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A377" s="39"/>
+      <c r="B377" s="39"/>
       <c r="C377" s="1" t="s">
         <v>961</v>
       </c>
@@ -10437,9 +10434,9 @@
       <c r="G377" s="1"/>
       <c r="H377" s="1"/>
     </row>
-    <row r="378" spans="1:8">
-      <c r="A378" s="36"/>
-      <c r="B378" s="36"/>
+    <row r="378" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A378" s="39"/>
+      <c r="B378" s="39"/>
       <c r="C378" s="1" t="s">
         <v>964</v>
       </c>
@@ -10455,9 +10452,9 @@
       <c r="G378" s="1"/>
       <c r="H378" s="1"/>
     </row>
-    <row r="379" spans="1:8">
-      <c r="A379" s="36"/>
-      <c r="B379" s="36"/>
+    <row r="379" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A379" s="39"/>
+      <c r="B379" s="39"/>
       <c r="C379" s="1" t="s">
         <v>967</v>
       </c>
@@ -10473,9 +10470,9 @@
       <c r="G379" s="1"/>
       <c r="H379" s="1"/>
     </row>
-    <row r="380" spans="1:8">
-      <c r="A380" s="36"/>
-      <c r="B380" s="36"/>
+    <row r="380" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A380" s="39"/>
+      <c r="B380" s="39"/>
       <c r="C380" s="1" t="s">
         <v>970</v>
       </c>
@@ -10491,9 +10488,9 @@
       <c r="G380" s="1"/>
       <c r="H380" s="1"/>
     </row>
-    <row r="381" spans="1:8">
-      <c r="A381" s="36"/>
-      <c r="B381" s="36"/>
+    <row r="381" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A381" s="39"/>
+      <c r="B381" s="39"/>
       <c r="C381" s="1" t="s">
         <v>973</v>
       </c>
@@ -10509,9 +10506,9 @@
       <c r="G381" s="1"/>
       <c r="H381" s="1"/>
     </row>
-    <row r="382" spans="1:8">
-      <c r="A382" s="36"/>
-      <c r="B382" s="36"/>
+    <row r="382" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A382" s="39"/>
+      <c r="B382" s="39"/>
       <c r="C382" s="1" t="s">
         <v>975</v>
       </c>
@@ -10527,9 +10524,9 @@
       <c r="G382" s="1"/>
       <c r="H382" s="1"/>
     </row>
-    <row r="383" spans="1:8">
-      <c r="A383" s="36"/>
-      <c r="B383" s="36"/>
+    <row r="383" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A383" s="39"/>
+      <c r="B383" s="39"/>
       <c r="C383" s="1" t="s">
         <v>977</v>
       </c>
@@ -10545,9 +10542,9 @@
       <c r="G383" s="1"/>
       <c r="H383" s="1"/>
     </row>
-    <row r="384" spans="1:8">
-      <c r="A384" s="36"/>
-      <c r="B384" s="36"/>
+    <row r="384" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A384" s="39"/>
+      <c r="B384" s="39"/>
       <c r="C384" s="1" t="s">
         <v>980</v>
       </c>
@@ -10563,9 +10560,9 @@
       <c r="G384" s="1"/>
       <c r="H384" s="1"/>
     </row>
-    <row r="385" spans="1:8">
-      <c r="A385" s="36"/>
-      <c r="B385" s="36"/>
+    <row r="385" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A385" s="39"/>
+      <c r="B385" s="39"/>
       <c r="C385" s="1" t="s">
         <v>982</v>
       </c>
@@ -10581,9 +10578,9 @@
       <c r="G385" s="1"/>
       <c r="H385" s="1"/>
     </row>
-    <row r="386" spans="1:8">
-      <c r="A386" s="36"/>
-      <c r="B386" s="36"/>
+    <row r="386" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A386" s="39"/>
+      <c r="B386" s="39"/>
       <c r="C386" s="1" t="s">
         <v>985</v>
       </c>
@@ -10599,7 +10596,7 @@
       <c r="G386" s="1"/>
       <c r="H386" s="1"/>
     </row>
-    <row r="387" spans="1:8" ht="4.5" customHeight="1">
+    <row r="387" spans="1:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="6"/>
       <c r="B387" s="6"/>
       <c r="C387" s="5"/>
@@ -10609,11 +10606,11 @@
       <c r="G387" s="5"/>
       <c r="H387" s="5"/>
     </row>
-    <row r="388" spans="1:8" ht="30">
-      <c r="A388" s="36" t="s">
+    <row r="388" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A388" s="39" t="s">
         <v>988</v>
       </c>
-      <c r="B388" s="36" t="s">
+      <c r="B388" s="39" t="s">
         <v>989</v>
       </c>
       <c r="C388" s="1" t="s">
@@ -10631,9 +10628,9 @@
       <c r="G388" s="1"/>
       <c r="H388" s="1"/>
     </row>
-    <row r="389" spans="1:8">
-      <c r="A389" s="36"/>
-      <c r="B389" s="36"/>
+    <row r="389" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A389" s="39"/>
+      <c r="B389" s="39"/>
       <c r="C389" s="1" t="s">
         <v>993</v>
       </c>
@@ -10649,9 +10646,9 @@
       <c r="G389" s="1"/>
       <c r="H389" s="1"/>
     </row>
-    <row r="390" spans="1:8">
-      <c r="A390" s="36"/>
-      <c r="B390" s="36"/>
+    <row r="390" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A390" s="39"/>
+      <c r="B390" s="39"/>
       <c r="C390" s="9" t="s">
         <v>996</v>
       </c>
@@ -10664,9 +10661,9 @@
       <c r="G390" s="1"/>
       <c r="H390" s="1"/>
     </row>
-    <row r="391" spans="1:8">
-      <c r="A391" s="36"/>
-      <c r="B391" s="36"/>
+    <row r="391" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A391" s="39"/>
+      <c r="B391" s="39"/>
       <c r="C391" s="1" t="s">
         <v>998</v>
       </c>
@@ -10682,9 +10679,9 @@
       <c r="G391" s="1"/>
       <c r="H391" s="1"/>
     </row>
-    <row r="392" spans="1:8">
-      <c r="A392" s="36"/>
-      <c r="B392" s="36"/>
+    <row r="392" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A392" s="39"/>
+      <c r="B392" s="39"/>
       <c r="C392" s="1" t="s">
         <v>1000</v>
       </c>
@@ -10700,9 +10697,9 @@
       <c r="G392" s="1"/>
       <c r="H392" s="1"/>
     </row>
-    <row r="393" spans="1:8">
-      <c r="A393" s="36"/>
-      <c r="B393" s="36"/>
+    <row r="393" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A393" s="39"/>
+      <c r="B393" s="39"/>
       <c r="C393" s="1" t="s">
         <v>1003</v>
       </c>
@@ -10718,9 +10715,9 @@
       <c r="G393" s="1"/>
       <c r="H393" s="1"/>
     </row>
-    <row r="394" spans="1:8">
-      <c r="A394" s="36"/>
-      <c r="B394" s="36"/>
+    <row r="394" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A394" s="39"/>
+      <c r="B394" s="39"/>
       <c r="C394" s="9" t="s">
         <v>1005</v>
       </c>
@@ -10734,9 +10731,9 @@
       <c r="G394" s="1"/>
       <c r="H394" s="1"/>
     </row>
-    <row r="395" spans="1:8">
-      <c r="A395" s="36"/>
-      <c r="B395" s="36"/>
+    <row r="395" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A395" s="39"/>
+      <c r="B395" s="39"/>
       <c r="C395" s="9" t="s">
         <v>1007</v>
       </c>
@@ -10750,9 +10747,9 @@
       <c r="G395" s="1"/>
       <c r="H395" s="1"/>
     </row>
-    <row r="396" spans="1:8">
-      <c r="A396" s="36"/>
-      <c r="B396" s="36"/>
+    <row r="396" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A396" s="39"/>
+      <c r="B396" s="39"/>
       <c r="C396" s="9" t="s">
         <v>1009</v>
       </c>
@@ -10766,9 +10763,9 @@
       <c r="G396" s="1"/>
       <c r="H396" s="1"/>
     </row>
-    <row r="397" spans="1:8">
-      <c r="A397" s="36"/>
-      <c r="B397" s="36"/>
+    <row r="397" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A397" s="39"/>
+      <c r="B397" s="39"/>
       <c r="C397" s="1" t="s">
         <v>1011</v>
       </c>
@@ -10784,9 +10781,9 @@
       <c r="G397" s="1"/>
       <c r="H397" s="1"/>
     </row>
-    <row r="398" spans="1:8">
-      <c r="A398" s="36"/>
-      <c r="B398" s="36"/>
+    <row r="398" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A398" s="39"/>
+      <c r="B398" s="39"/>
       <c r="C398" s="9" t="s">
         <v>1014</v>
       </c>
@@ -10800,9 +10797,9 @@
       <c r="G398" s="1"/>
       <c r="H398" s="1"/>
     </row>
-    <row r="399" spans="1:8">
-      <c r="A399" s="36"/>
-      <c r="B399" s="36"/>
+    <row r="399" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A399" s="39"/>
+      <c r="B399" s="39"/>
       <c r="C399" s="9" t="s">
         <v>1015</v>
       </c>
@@ -10816,9 +10813,9 @@
       <c r="G399" s="1"/>
       <c r="H399" s="1"/>
     </row>
-    <row r="400" spans="1:8">
-      <c r="A400" s="36"/>
-      <c r="B400" s="36"/>
+    <row r="400" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A400" s="39"/>
+      <c r="B400" s="39"/>
       <c r="C400" s="9" t="s">
         <v>1017</v>
       </c>
@@ -10832,7 +10829,7 @@
       <c r="G400" s="1"/>
       <c r="H400" s="1"/>
     </row>
-    <row r="401" spans="1:8" ht="4.5" customHeight="1">
+    <row r="401" spans="1:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="6"/>
       <c r="B401" s="6"/>
       <c r="C401" s="5"/>
@@ -10842,11 +10839,11 @@
       <c r="G401" s="5"/>
       <c r="H401" s="5"/>
     </row>
-    <row r="402" spans="1:8" ht="60">
-      <c r="A402" s="37" t="s">
+    <row r="402" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A402" s="40" t="s">
         <v>1018</v>
       </c>
-      <c r="B402" s="37" t="s">
+      <c r="B402" s="40" t="s">
         <v>1019</v>
       </c>
       <c r="C402" s="9" t="s">
@@ -10866,9 +10863,9 @@
       </c>
       <c r="H402" s="17"/>
     </row>
-    <row r="403" spans="1:8">
-      <c r="A403" s="37"/>
-      <c r="B403" s="37"/>
+    <row r="403" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A403" s="40"/>
+      <c r="B403" s="40"/>
       <c r="C403" s="9" t="s">
         <v>1023</v>
       </c>
@@ -10884,9 +10881,9 @@
       <c r="G403" s="1"/>
       <c r="H403" s="1"/>
     </row>
-    <row r="404" spans="1:8" ht="60">
-      <c r="A404" s="37"/>
-      <c r="B404" s="37"/>
+    <row r="404" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A404" s="40"/>
+      <c r="B404" s="40"/>
       <c r="C404" s="9" t="s">
         <v>1026</v>
       </c>
@@ -10902,9 +10899,9 @@
       <c r="G404" s="1"/>
       <c r="H404" s="1"/>
     </row>
-    <row r="405" spans="1:8" ht="60">
-      <c r="A405" s="37"/>
-      <c r="B405" s="37"/>
+    <row r="405" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A405" s="40"/>
+      <c r="B405" s="40"/>
       <c r="C405" s="9" t="s">
         <v>1029</v>
       </c>
@@ -10920,7 +10917,7 @@
       <c r="G405" s="1"/>
       <c r="H405" s="1"/>
     </row>
-    <row r="406" spans="1:8" ht="4.5" customHeight="1">
+    <row r="406" spans="1:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="6"/>
       <c r="B406" s="6"/>
       <c r="C406" s="5"/>
@@ -10930,11 +10927,11 @@
       <c r="G406" s="5"/>
       <c r="H406" s="5"/>
     </row>
-    <row r="407" spans="1:8" ht="30">
-      <c r="A407" s="36" t="s">
+    <row r="407" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A407" s="39" t="s">
         <v>1032</v>
       </c>
-      <c r="B407" s="36" t="s">
+      <c r="B407" s="39" t="s">
         <v>1033</v>
       </c>
       <c r="C407" s="16" t="s">
@@ -10952,9 +10949,9 @@
       <c r="G407" s="1"/>
       <c r="H407" s="1"/>
     </row>
-    <row r="408" spans="1:8">
-      <c r="A408" s="36"/>
-      <c r="B408" s="36"/>
+    <row r="408" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A408" s="39"/>
+      <c r="B408" s="39"/>
       <c r="C408" s="1" t="s">
         <v>1037</v>
       </c>
@@ -10968,9 +10965,9 @@
       <c r="G408" s="1"/>
       <c r="H408" s="1"/>
     </row>
-    <row r="409" spans="1:8">
-      <c r="A409" s="36"/>
-      <c r="B409" s="36"/>
+    <row r="409" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A409" s="39"/>
+      <c r="B409" s="39"/>
       <c r="C409" s="1" t="s">
         <v>1039</v>
       </c>
@@ -10984,7 +10981,7 @@
       <c r="G409" s="1"/>
       <c r="H409" s="1"/>
     </row>
-    <row r="410" spans="1:8" ht="4.5" customHeight="1">
+    <row r="410" spans="1:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="6"/>
       <c r="B410" s="6"/>
       <c r="C410" s="5"/>
@@ -10994,11 +10991,11 @@
       <c r="G410" s="5"/>
       <c r="H410" s="5"/>
     </row>
-    <row r="411" spans="1:8" ht="75">
-      <c r="A411" s="36" t="s">
+    <row r="411" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+      <c r="A411" s="39" t="s">
         <v>1041</v>
       </c>
-      <c r="B411" s="36" t="s">
+      <c r="B411" s="39" t="s">
         <v>1042</v>
       </c>
       <c r="C411" s="9" t="s">
@@ -11016,9 +11013,9 @@
       <c r="G411" s="1"/>
       <c r="H411" s="1"/>
     </row>
-    <row r="412" spans="1:8">
-      <c r="A412" s="36"/>
-      <c r="B412" s="36"/>
+    <row r="412" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A412" s="39"/>
+      <c r="B412" s="39"/>
       <c r="C412" s="1" t="s">
         <v>1046</v>
       </c>
@@ -11034,9 +11031,9 @@
       <c r="G412" s="1"/>
       <c r="H412" s="1"/>
     </row>
-    <row r="413" spans="1:8" ht="60">
-      <c r="A413" s="36"/>
-      <c r="B413" s="36"/>
+    <row r="413" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A413" s="39"/>
+      <c r="B413" s="39"/>
       <c r="C413" s="16" t="s">
         <v>1049</v>
       </c>
@@ -11052,10 +11049,10 @@
       <c r="G413" s="1"/>
       <c r="H413" s="1"/>
     </row>
-    <row r="414" spans="1:8">
-      <c r="A414" s="36"/>
-      <c r="B414" s="36"/>
-      <c r="C414" s="39" t="s">
+    <row r="414" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A414" s="39"/>
+      <c r="B414" s="39"/>
+      <c r="C414" s="38" t="s">
         <v>1052</v>
       </c>
       <c r="D414" s="25" t="s">
@@ -11064,29 +11061,29 @@
       <c r="E414" s="1" t="s">
         <v>1054</v>
       </c>
-      <c r="F414" s="38">
+      <c r="F414" s="36">
         <v>3600</v>
       </c>
       <c r="G414" s="1"/>
       <c r="H414" s="1"/>
     </row>
-    <row r="415" spans="1:8">
-      <c r="A415" s="36"/>
-      <c r="B415" s="36"/>
-      <c r="C415" s="39"/>
+    <row r="415" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A415" s="39"/>
+      <c r="B415" s="39"/>
+      <c r="C415" s="38"/>
       <c r="D415" s="25" t="s">
         <v>1055</v>
       </c>
       <c r="E415" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="F415" s="38"/>
+      <c r="F415" s="36"/>
       <c r="G415" s="1"/>
       <c r="H415" s="1"/>
     </row>
-    <row r="416" spans="1:8">
-      <c r="A416" s="36"/>
-      <c r="B416" s="36"/>
+    <row r="416" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A416" s="39"/>
+      <c r="B416" s="39"/>
       <c r="C416" s="1" t="s">
         <v>1057</v>
       </c>
@@ -11102,10 +11099,10 @@
       <c r="G416" s="1"/>
       <c r="H416" s="1"/>
     </row>
-    <row r="417" spans="1:8" ht="60">
-      <c r="A417" s="36"/>
-      <c r="B417" s="36"/>
-      <c r="C417" s="39" t="s">
+    <row r="417" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A417" s="39"/>
+      <c r="B417" s="39"/>
+      <c r="C417" s="38" t="s">
         <v>1060</v>
       </c>
       <c r="D417" s="3" t="s">
@@ -11114,30 +11111,30 @@
       <c r="E417" s="1" t="s">
         <v>1062</v>
       </c>
-      <c r="F417" s="38">
+      <c r="F417" s="36">
         <v>15585600</v>
       </c>
       <c r="G417" s="1"/>
       <c r="H417" s="1"/>
     </row>
-    <row r="418" spans="1:8">
-      <c r="A418" s="36"/>
-      <c r="B418" s="36"/>
-      <c r="C418" s="39"/>
+    <row r="418" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A418" s="39"/>
+      <c r="B418" s="39"/>
+      <c r="C418" s="38"/>
       <c r="D418" s="3" t="s">
         <v>1021</v>
       </c>
       <c r="E418" s="1" t="s">
         <v>1063</v>
       </c>
-      <c r="F418" s="38"/>
+      <c r="F418" s="36"/>
       <c r="G418" s="1"/>
       <c r="H418" s="1"/>
     </row>
-    <row r="419" spans="1:8">
-      <c r="A419" s="36"/>
-      <c r="B419" s="36"/>
-      <c r="C419" s="39" t="s">
+    <row r="419" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A419" s="39"/>
+      <c r="B419" s="39"/>
+      <c r="C419" s="38" t="s">
         <v>1064</v>
       </c>
       <c r="D419" s="25" t="s">
@@ -11146,30 +11143,30 @@
       <c r="E419" s="1" t="s">
         <v>1066</v>
       </c>
-      <c r="F419" s="38">
+      <c r="F419" s="36">
         <v>7487000</v>
       </c>
       <c r="G419" s="1"/>
       <c r="H419" s="1"/>
     </row>
-    <row r="420" spans="1:8">
-      <c r="A420" s="36"/>
-      <c r="B420" s="36"/>
-      <c r="C420" s="39"/>
+    <row r="420" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A420" s="39"/>
+      <c r="B420" s="39"/>
+      <c r="C420" s="38"/>
       <c r="D420" s="25" t="s">
         <v>1067</v>
       </c>
       <c r="E420" s="1" t="s">
         <v>1068</v>
       </c>
-      <c r="F420" s="38"/>
+      <c r="F420" s="36"/>
       <c r="G420" s="1"/>
       <c r="H420" s="1"/>
     </row>
-    <row r="421" spans="1:8">
-      <c r="A421" s="36"/>
-      <c r="B421" s="36"/>
-      <c r="C421" s="39" t="s">
+    <row r="421" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A421" s="39"/>
+      <c r="B421" s="39"/>
+      <c r="C421" s="38" t="s">
         <v>1069</v>
       </c>
       <c r="D421" s="25" t="s">
@@ -11178,29 +11175,29 @@
       <c r="E421" s="1" t="s">
         <v>1070</v>
       </c>
-      <c r="F421" s="38">
+      <c r="F421" s="36">
         <v>13672800</v>
       </c>
-      <c r="G421" s="40" t="s">
+      <c r="G421" s="42" t="s">
         <v>34</v>
       </c>
       <c r="H421" s="17"/>
     </row>
-    <row r="422" spans="1:8">
-      <c r="A422" s="36"/>
-      <c r="B422" s="36"/>
-      <c r="C422" s="39"/>
+    <row r="422" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A422" s="39"/>
+      <c r="B422" s="39"/>
+      <c r="C422" s="38"/>
       <c r="D422" s="25" t="s">
         <v>1071</v>
       </c>
       <c r="E422" s="1"/>
-      <c r="F422" s="38"/>
-      <c r="G422" s="40"/>
+      <c r="F422" s="36"/>
+      <c r="G422" s="42"/>
       <c r="H422" s="17"/>
     </row>
-    <row r="423" spans="1:8">
-      <c r="A423" s="36"/>
-      <c r="B423" s="36"/>
+    <row r="423" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A423" s="39"/>
+      <c r="B423" s="39"/>
       <c r="C423" s="1" t="s">
         <v>1072</v>
       </c>
@@ -11214,9 +11211,9 @@
       <c r="G423" s="1"/>
       <c r="H423" s="1"/>
     </row>
-    <row r="424" spans="1:8">
-      <c r="A424" s="36"/>
-      <c r="B424" s="36"/>
+    <row r="424" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A424" s="39"/>
+      <c r="B424" s="39"/>
       <c r="C424" s="1" t="s">
         <v>1073</v>
       </c>
@@ -11230,9 +11227,9 @@
       <c r="G424" s="1"/>
       <c r="H424" s="1"/>
     </row>
-    <row r="425" spans="1:8" ht="30">
-      <c r="A425" s="36"/>
-      <c r="B425" s="36"/>
+    <row r="425" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A425" s="39"/>
+      <c r="B425" s="39"/>
       <c r="C425" s="9" t="s">
         <v>1075</v>
       </c>
@@ -11246,10 +11243,10 @@
       <c r="G425" s="1"/>
       <c r="H425" s="1"/>
     </row>
-    <row r="426" spans="1:8">
-      <c r="A426" s="36"/>
-      <c r="B426" s="36"/>
-      <c r="C426" s="39" t="s">
+    <row r="426" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A426" s="39"/>
+      <c r="B426" s="39"/>
+      <c r="C426" s="38" t="s">
         <v>1076</v>
       </c>
       <c r="D426" s="25" t="s">
@@ -11258,30 +11255,30 @@
       <c r="E426" s="1" t="s">
         <v>1078</v>
       </c>
-      <c r="F426" s="38">
+      <c r="F426" s="36">
         <v>1</v>
       </c>
       <c r="G426" s="1"/>
       <c r="H426" s="1"/>
     </row>
-    <row r="427" spans="1:8">
-      <c r="A427" s="36"/>
-      <c r="B427" s="36"/>
-      <c r="C427" s="39"/>
+    <row r="427" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A427" s="39"/>
+      <c r="B427" s="39"/>
+      <c r="C427" s="38"/>
       <c r="D427" s="25" t="s">
         <v>1079</v>
       </c>
       <c r="E427" s="1" t="s">
         <v>1080</v>
       </c>
-      <c r="F427" s="38"/>
+      <c r="F427" s="36"/>
       <c r="G427" s="1"/>
       <c r="H427" s="1"/>
     </row>
-    <row r="428" spans="1:8">
-      <c r="A428" s="36"/>
-      <c r="B428" s="36"/>
-      <c r="C428" s="39" t="s">
+    <row r="428" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A428" s="39"/>
+      <c r="B428" s="39"/>
+      <c r="C428" s="38" t="s">
         <v>1081</v>
       </c>
       <c r="D428" s="25" t="s">
@@ -11290,30 +11287,30 @@
       <c r="E428" s="1" t="s">
         <v>1083</v>
       </c>
-      <c r="F428" s="38">
+      <c r="F428" s="36">
         <v>7396000</v>
       </c>
       <c r="G428" s="1"/>
       <c r="H428" s="1"/>
     </row>
-    <row r="429" spans="1:8">
-      <c r="A429" s="36"/>
-      <c r="B429" s="36"/>
-      <c r="C429" s="39"/>
+    <row r="429" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A429" s="39"/>
+      <c r="B429" s="39"/>
+      <c r="C429" s="38"/>
       <c r="D429" s="25" t="s">
         <v>1084</v>
       </c>
       <c r="E429" s="1" t="s">
         <v>1085</v>
       </c>
-      <c r="F429" s="38"/>
+      <c r="F429" s="36"/>
       <c r="G429" s="1"/>
       <c r="H429" s="1"/>
     </row>
-    <row r="430" spans="1:8">
-      <c r="A430" s="36"/>
-      <c r="B430" s="36"/>
-      <c r="C430" s="39" t="s">
+    <row r="430" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A430" s="39"/>
+      <c r="B430" s="39"/>
+      <c r="C430" s="38" t="s">
         <v>1086</v>
       </c>
       <c r="D430" s="25" t="s">
@@ -11322,29 +11319,29 @@
       <c r="E430" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="F430" s="38">
+      <c r="F430" s="36">
         <v>14229370</v>
       </c>
       <c r="G430" s="1"/>
       <c r="H430" s="1"/>
     </row>
-    <row r="431" spans="1:8">
-      <c r="A431" s="36"/>
-      <c r="B431" s="36"/>
-      <c r="C431" s="39"/>
+    <row r="431" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A431" s="39"/>
+      <c r="B431" s="39"/>
+      <c r="C431" s="38"/>
       <c r="D431" s="25" t="s">
         <v>1089</v>
       </c>
       <c r="E431" s="1" t="s">
         <v>1090</v>
       </c>
-      <c r="F431" s="38"/>
+      <c r="F431" s="36"/>
       <c r="G431" s="1"/>
       <c r="H431" s="1"/>
     </row>
-    <row r="432" spans="1:8">
-      <c r="A432" s="36"/>
-      <c r="B432" s="36"/>
+    <row r="432" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A432" s="39"/>
+      <c r="B432" s="39"/>
       <c r="C432" s="1" t="s">
         <v>1091</v>
       </c>
@@ -11362,15 +11359,15 @@
       </c>
       <c r="H432" s="17"/>
     </row>
-    <row r="433" spans="1:8" s="6" customFormat="1" ht="3.75" customHeight="1">
+    <row r="433" spans="1:8" s="6" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D433" s="30"/>
       <c r="F433" s="14"/>
     </row>
-    <row r="434" spans="1:8">
-      <c r="A434" s="36" t="s">
+    <row r="434" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A434" s="39" t="s">
         <v>1094</v>
       </c>
-      <c r="B434" s="36" t="s">
+      <c r="B434" s="39" t="s">
         <v>1095</v>
       </c>
       <c r="C434" s="1" t="s">
@@ -11388,9 +11385,9 @@
       <c r="G434" s="1"/>
       <c r="H434" s="1"/>
     </row>
-    <row r="435" spans="1:8" ht="30">
-      <c r="A435" s="36"/>
-      <c r="B435" s="36"/>
+    <row r="435" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A435" s="39"/>
+      <c r="B435" s="39"/>
       <c r="C435" s="1" t="s">
         <v>1099</v>
       </c>
@@ -11406,9 +11403,9 @@
       <c r="G435" s="1"/>
       <c r="H435" s="1"/>
     </row>
-    <row r="436" spans="1:8" ht="30">
-      <c r="A436" s="36"/>
-      <c r="B436" s="36"/>
+    <row r="436" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A436" s="39"/>
+      <c r="B436" s="39"/>
       <c r="C436" s="1" t="s">
         <v>1102</v>
       </c>
@@ -11424,9 +11421,9 @@
       <c r="G436" s="1"/>
       <c r="H436" s="1"/>
     </row>
-    <row r="437" spans="1:8" ht="30">
-      <c r="A437" s="36"/>
-      <c r="B437" s="36"/>
+    <row r="437" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A437" s="39"/>
+      <c r="B437" s="39"/>
       <c r="C437" s="16" t="s">
         <v>1105</v>
       </c>
@@ -11442,9 +11439,9 @@
       <c r="G437" s="1"/>
       <c r="H437" s="1"/>
     </row>
-    <row r="438" spans="1:8">
-      <c r="A438" s="36"/>
-      <c r="B438" s="36"/>
+    <row r="438" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A438" s="39"/>
+      <c r="B438" s="39"/>
       <c r="C438" s="1" t="s">
         <v>1108</v>
       </c>
@@ -11460,15 +11457,15 @@
       <c r="G438" s="1"/>
       <c r="H438" s="1"/>
     </row>
-    <row r="439" spans="1:8" s="6" customFormat="1" ht="3.75" customHeight="1">
+    <row r="439" spans="1:8" s="6" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D439" s="30"/>
       <c r="F439" s="14"/>
     </row>
-    <row r="440" spans="1:8" ht="75">
-      <c r="A440" s="36" t="s">
+    <row r="440" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A440" s="39" t="s">
         <v>1111</v>
       </c>
-      <c r="B440" s="36" t="s">
+      <c r="B440" s="39" t="s">
         <v>1112</v>
       </c>
       <c r="C440" s="8" t="s">
@@ -11484,9 +11481,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:8">
-      <c r="A441" s="36"/>
-      <c r="B441" s="36"/>
+    <row r="441" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A441" s="39"/>
+      <c r="B441" s="39"/>
       <c r="C441" t="s">
         <v>1116</v>
       </c>
@@ -11500,9 +11497,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:8">
-      <c r="A442" s="36"/>
-      <c r="B442" s="36"/>
+    <row r="442" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A442" s="39"/>
+      <c r="B442" s="39"/>
       <c r="C442" s="19" t="s">
         <v>1119</v>
       </c>
@@ -11516,9 +11513,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:8">
-      <c r="A443" s="36"/>
-      <c r="B443" s="36"/>
+    <row r="443" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A443" s="39"/>
+      <c r="B443" s="39"/>
       <c r="C443" t="s">
         <v>1122</v>
       </c>
@@ -11532,9 +11529,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:8">
-      <c r="A444" s="36"/>
-      <c r="B444" s="36"/>
+    <row r="444" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A444" s="39"/>
+      <c r="B444" s="39"/>
       <c r="C444" t="s">
         <v>1125</v>
       </c>
@@ -11548,7 +11545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:8" s="6" customFormat="1" ht="3.75" customHeight="1">
+    <row r="445" spans="1:8" s="6" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D445" s="30"/>
       <c r="F445" s="14"/>
     </row>
@@ -11558,17 +11555,172 @@
     <sortCondition ref="C254:C361"/>
   </sortState>
   <mergeCells count="201">
-    <mergeCell ref="F164:F165"/>
-    <mergeCell ref="F149:F150"/>
-    <mergeCell ref="F151:F152"/>
-    <mergeCell ref="F153:F154"/>
-    <mergeCell ref="F155:F156"/>
-    <mergeCell ref="F158:F159"/>
-    <mergeCell ref="C155:C156"/>
-    <mergeCell ref="C158:C159"/>
-    <mergeCell ref="C149:C150"/>
-    <mergeCell ref="C151:C152"/>
-    <mergeCell ref="C153:C154"/>
+    <mergeCell ref="B364:B366"/>
+    <mergeCell ref="B368:B386"/>
+    <mergeCell ref="B388:B400"/>
+    <mergeCell ref="B402:B405"/>
+    <mergeCell ref="B407:B409"/>
+    <mergeCell ref="B411:B432"/>
+    <mergeCell ref="B434:B438"/>
+    <mergeCell ref="B440:B444"/>
+    <mergeCell ref="F361:F362"/>
+    <mergeCell ref="F417:F418"/>
+    <mergeCell ref="C421:C422"/>
+    <mergeCell ref="F421:F422"/>
+    <mergeCell ref="G421:G422"/>
+    <mergeCell ref="C426:C427"/>
+    <mergeCell ref="F426:F427"/>
+    <mergeCell ref="F284:F285"/>
+    <mergeCell ref="A241:A249"/>
+    <mergeCell ref="A251:A252"/>
+    <mergeCell ref="A254:A362"/>
+    <mergeCell ref="C361:C362"/>
+    <mergeCell ref="C417:C418"/>
+    <mergeCell ref="C259:C260"/>
+    <mergeCell ref="C275:C276"/>
+    <mergeCell ref="C282:C283"/>
+    <mergeCell ref="C284:C285"/>
+    <mergeCell ref="C318:C319"/>
+    <mergeCell ref="C333:C335"/>
+    <mergeCell ref="C329:C330"/>
+    <mergeCell ref="C325:C326"/>
+    <mergeCell ref="C358:C359"/>
+    <mergeCell ref="F259:F260"/>
+    <mergeCell ref="F275:F276"/>
+    <mergeCell ref="F282:F283"/>
+    <mergeCell ref="F318:F319"/>
+    <mergeCell ref="F325:F326"/>
+    <mergeCell ref="F329:F330"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="A113:A175"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="A225:A239"/>
+    <mergeCell ref="C183:C184"/>
+    <mergeCell ref="C181:C182"/>
+    <mergeCell ref="C211:C214"/>
+    <mergeCell ref="C127:C129"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="C140:C142"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="C145:C147"/>
+    <mergeCell ref="C202:C203"/>
+    <mergeCell ref="F181:F182"/>
+    <mergeCell ref="F183:F184"/>
+    <mergeCell ref="C190:C191"/>
+    <mergeCell ref="F190:F191"/>
+    <mergeCell ref="C199:C201"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="C205:C207"/>
+    <mergeCell ref="F205:F207"/>
+    <mergeCell ref="F202:F203"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="F121:F122"/>
+    <mergeCell ref="F127:F129"/>
+    <mergeCell ref="F130:F131"/>
+    <mergeCell ref="F138:F139"/>
+    <mergeCell ref="F140:F142"/>
+    <mergeCell ref="F143:F144"/>
+    <mergeCell ref="F145:F147"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="F211:F214"/>
+    <mergeCell ref="C215:C217"/>
+    <mergeCell ref="F215:F217"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="A3:A38"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="B3:B38"/>
+    <mergeCell ref="B40:B111"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="F95:F97"/>
+    <mergeCell ref="F82:F84"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="A440:A444"/>
+    <mergeCell ref="A434:A438"/>
+    <mergeCell ref="C419:C420"/>
+    <mergeCell ref="C428:C429"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="A388:A400"/>
+    <mergeCell ref="A402:A405"/>
+    <mergeCell ref="A407:A409"/>
+    <mergeCell ref="A364:A366"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="A40:A111"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="C95:C97"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="F333:F335"/>
+    <mergeCell ref="F358:F359"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="F199:F201"/>
+    <mergeCell ref="F197:F198"/>
+    <mergeCell ref="C222:C223"/>
+    <mergeCell ref="F222:F223"/>
+    <mergeCell ref="C209:C210"/>
+    <mergeCell ref="F209:F210"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="F98:F99"/>
     <mergeCell ref="A411:A432"/>
     <mergeCell ref="A368:A386"/>
     <mergeCell ref="C197:C198"/>
@@ -11593,175 +11745,21 @@
     <mergeCell ref="B251:B252"/>
     <mergeCell ref="B254:B362"/>
     <mergeCell ref="F161:F163"/>
-    <mergeCell ref="F333:F335"/>
-    <mergeCell ref="F358:F359"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="F199:F201"/>
-    <mergeCell ref="F197:F198"/>
-    <mergeCell ref="C222:C223"/>
-    <mergeCell ref="F222:F223"/>
-    <mergeCell ref="C209:C210"/>
-    <mergeCell ref="F209:F210"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="A440:A444"/>
-    <mergeCell ref="A434:A438"/>
-    <mergeCell ref="C419:C420"/>
-    <mergeCell ref="C428:C429"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="A388:A400"/>
-    <mergeCell ref="A402:A405"/>
-    <mergeCell ref="A407:A409"/>
-    <mergeCell ref="A364:A366"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="A40:A111"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="C95:C97"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="F211:F214"/>
-    <mergeCell ref="C215:C217"/>
-    <mergeCell ref="F215:F217"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="A3:A38"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="B3:B38"/>
-    <mergeCell ref="B40:B111"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="F95:F97"/>
-    <mergeCell ref="F82:F84"/>
-    <mergeCell ref="F86:F87"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="F181:F182"/>
-    <mergeCell ref="F183:F184"/>
-    <mergeCell ref="C190:C191"/>
-    <mergeCell ref="F190:F191"/>
-    <mergeCell ref="C199:C201"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="C205:C207"/>
-    <mergeCell ref="F205:F207"/>
-    <mergeCell ref="F202:F203"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="F108:F109"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="F121:F122"/>
-    <mergeCell ref="F127:F129"/>
-    <mergeCell ref="F130:F131"/>
-    <mergeCell ref="F138:F139"/>
-    <mergeCell ref="F140:F142"/>
-    <mergeCell ref="F143:F144"/>
-    <mergeCell ref="F145:F147"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="A113:A175"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="A225:A239"/>
-    <mergeCell ref="C183:C184"/>
-    <mergeCell ref="C181:C182"/>
-    <mergeCell ref="C211:C214"/>
-    <mergeCell ref="C127:C129"/>
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="C140:C142"/>
-    <mergeCell ref="C143:C144"/>
-    <mergeCell ref="C145:C147"/>
-    <mergeCell ref="C202:C203"/>
-    <mergeCell ref="G421:G422"/>
-    <mergeCell ref="C426:C427"/>
-    <mergeCell ref="F426:F427"/>
-    <mergeCell ref="F284:F285"/>
-    <mergeCell ref="A241:A249"/>
-    <mergeCell ref="A251:A252"/>
-    <mergeCell ref="A254:A362"/>
-    <mergeCell ref="C361:C362"/>
-    <mergeCell ref="C417:C418"/>
-    <mergeCell ref="C259:C260"/>
-    <mergeCell ref="C275:C276"/>
-    <mergeCell ref="C282:C283"/>
-    <mergeCell ref="C284:C285"/>
-    <mergeCell ref="C318:C319"/>
-    <mergeCell ref="C333:C335"/>
-    <mergeCell ref="C329:C330"/>
-    <mergeCell ref="C325:C326"/>
-    <mergeCell ref="C358:C359"/>
-    <mergeCell ref="F259:F260"/>
-    <mergeCell ref="F275:F276"/>
-    <mergeCell ref="F282:F283"/>
-    <mergeCell ref="F318:F319"/>
-    <mergeCell ref="F325:F326"/>
-    <mergeCell ref="F329:F330"/>
-    <mergeCell ref="B364:B366"/>
-    <mergeCell ref="B368:B386"/>
-    <mergeCell ref="B388:B400"/>
-    <mergeCell ref="B402:B405"/>
-    <mergeCell ref="B407:B409"/>
-    <mergeCell ref="B411:B432"/>
-    <mergeCell ref="B434:B438"/>
-    <mergeCell ref="B440:B444"/>
-    <mergeCell ref="F361:F362"/>
-    <mergeCell ref="F417:F418"/>
-    <mergeCell ref="C421:C422"/>
-    <mergeCell ref="F421:F422"/>
+    <mergeCell ref="F164:F165"/>
+    <mergeCell ref="F149:F150"/>
+    <mergeCell ref="F151:F152"/>
+    <mergeCell ref="F153:F154"/>
+    <mergeCell ref="F155:F156"/>
+    <mergeCell ref="F158:F159"/>
+    <mergeCell ref="C155:C156"/>
+    <mergeCell ref="C158:C159"/>
+    <mergeCell ref="C149:C150"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="C153:C154"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -11769,17 +11767,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A53DF00F-4877-405A-810F-2CFF77556D6D}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.5703125" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" customWidth="1"/>
+    <col min="1" max="1" width="38.5" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="32" t="s">
         <v>1128</v>
       </c>
@@ -11787,7 +11785,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="33" t="s">
         <v>31</v>
       </c>
@@ -11795,7 +11793,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30">
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="33" t="s">
         <v>72</v>
       </c>
@@ -11803,7 +11801,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="33" t="s">
         <v>55</v>
       </c>
@@ -11811,7 +11809,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="33" t="s">
         <v>512</v>
       </c>
@@ -11819,7 +11817,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="33" t="s">
         <v>500</v>
       </c>
@@ -11827,7 +11825,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="33" t="s">
         <v>517</v>
       </c>
@@ -11835,36 +11833,36 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B8" s="33" t="s">
         <v>1136</v>
       </c>
-      <c r="B8" s="33" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+    </row>
+    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="33" t="s">
         <v>395</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="33" t="s">
         <v>1069</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="30">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="33" t="s">
         <v>1091</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
   </sheetData>
@@ -11880,42 +11878,42 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="62.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="62.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>1141</v>
       </c>
-      <c r="B1" s="31" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>1142</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>1143</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>1144</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>1145</v>
       </c>
-      <c r="B3" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>1146</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1147</v>
       </c>
     </row>
   </sheetData>
@@ -11924,26 +11922,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1863cef1-43f4-44cb-a8ea-a0aa56817729">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="9d087ece-8ea2-475e-854b-6bccda7187b7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100345EED6470A45C4988D91837F4711929" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="31a695ad163a5ad25dbaead097b02b35">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1863cef1-43f4-44cb-a8ea-a0aa56817729" xmlns:ns3="9d087ece-8ea2-475e-854b-6bccda7187b7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="82fc658b8baf467b07554b40892f5ff8" ns2:_="" ns3:_="">
     <xsd:import namespace="1863cef1-43f4-44cb-a8ea-a0aa56817729"/>
@@ -12186,14 +12164,60 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1863cef1-43f4-44cb-a8ea-a0aa56817729">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="9d087ece-8ea2-475e-854b-6bccda7187b7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17C7BE50-FC0D-41EB-B0EC-EFAB912B86C8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49A79752-B581-4FC3-89D6-60873A316D7E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1863cef1-43f4-44cb-a8ea-a0aa56817729"/>
+    <ds:schemaRef ds:uri="9d087ece-8ea2-475e-854b-6bccda7187b7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40929C35-E972-4996-A8B5-AF109BFF4526}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40929C35-E972-4996-A8B5-AF109BFF4526}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49A79752-B581-4FC3-89D6-60873A316D7E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17C7BE50-FC0D-41EB-B0EC-EFAB912B86C8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1863cef1-43f4-44cb-a8ea-a0aa56817729"/>
+    <ds:schemaRef ds:uri="9d087ece-8ea2-475e-854b-6bccda7187b7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>